--- a/Excel/ScoutingPASS_QRReader.xlsx
+++ b/Excel/ScoutingPASS_QRReader.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24729"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hajuw\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hajuw\Desktop\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35136DF3-ABE0-4C35-9F79-99B33A6C34F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBB25D0A-4436-42E8-9629-9940FE1207D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{A46E49DD-D669-429F-AA31-B068C359770D}"/>
   </bookViews>
@@ -57,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="30">
   <si>
     <t>Scouter</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -84,10 +84,6 @@
   </si>
   <si>
     <t>Auto Start Position</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Taxi</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -609,7 +605,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0977C36-33F4-4B0D-9C5F-2DAE4DD4F224}">
-  <dimension ref="A1:AQ19"/>
+  <dimension ref="A1:AP19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
@@ -618,12 +614,12 @@
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="20.69921875" customWidth="1"/>
-    <col min="2" max="30" width="10.69921875" customWidth="1"/>
+    <col min="2" max="29" width="10.69921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:43" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:42" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -704,14 +700,12 @@
         <v>25</v>
       </c>
       <c r="AB1" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="AC1" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="AC1" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="AD1" s="5" t="s">
-        <v>27</v>
-      </c>
+      <c r="AD1" s="3"/>
       <c r="AE1" s="3"/>
       <c r="AF1" s="3"/>
       <c r="AG1" s="3"/>
@@ -724,9 +718,8 @@
       <c r="AN1" s="3"/>
       <c r="AO1" s="3"/>
       <c r="AP1" s="3"/>
-      <c r="AQ1" s="3"/>
-    </row>
-    <row r="2" spans="1:43" x14ac:dyDescent="0.4">
+    </row>
+    <row r="2" spans="1:42" x14ac:dyDescent="0.4">
       <c r="B2" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="B2" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A2,";",REPT(" ",LEN(A2)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A2)-LEN(SUBSTITUTE(A2,";",""))+1))*LEN(A2)+1,LEN(A2)+1)))</f>
         <v/>
@@ -758,7 +751,7 @@
       <c r="AA2" s="1"/>
       <c r="AB2" s="1"/>
       <c r="AC2" s="1"/>
-      <c r="AD2" s="1"/>
+      <c r="AD2" s="4"/>
       <c r="AE2" s="4"/>
       <c r="AF2" s="4"/>
       <c r="AG2" s="4"/>
@@ -771,9 +764,8 @@
       <c r="AN2" s="4"/>
       <c r="AO2" s="4"/>
       <c r="AP2" s="4"/>
-      <c r="AQ2" s="4"/>
-    </row>
-    <row r="3" spans="1:43" x14ac:dyDescent="0.4">
+    </row>
+    <row r="3" spans="1:42" x14ac:dyDescent="0.4">
       <c r="B3" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="B3" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A3,";",REPT(" ",LEN(A3)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A3)-LEN(SUBSTITUTE(A3,";",""))+1))*LEN(A3)+1,LEN(A3)+1)))</f>
         <v/>
@@ -805,7 +797,7 @@
       <c r="AA3" s="1"/>
       <c r="AB3" s="1"/>
       <c r="AC3" s="1"/>
-      <c r="AD3" s="1"/>
+      <c r="AD3" s="4"/>
       <c r="AE3" s="4"/>
       <c r="AF3" s="4"/>
       <c r="AG3" s="4"/>
@@ -818,9 +810,8 @@
       <c r="AN3" s="4"/>
       <c r="AO3" s="4"/>
       <c r="AP3" s="4"/>
-      <c r="AQ3" s="4"/>
-    </row>
-    <row r="4" spans="1:43" x14ac:dyDescent="0.4">
+    </row>
+    <row r="4" spans="1:42" x14ac:dyDescent="0.4">
       <c r="B4" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="B4" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A4,";",REPT(" ",LEN(A4)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A4)-LEN(SUBSTITUTE(A4,";",""))+1))*LEN(A4)+1,LEN(A4)+1)))</f>
         <v/>
@@ -852,7 +843,7 @@
       <c r="AA4" s="1"/>
       <c r="AB4" s="1"/>
       <c r="AC4" s="1"/>
-      <c r="AD4" s="1"/>
+      <c r="AD4" s="4"/>
       <c r="AE4" s="4"/>
       <c r="AF4" s="4"/>
       <c r="AG4" s="4"/>
@@ -865,9 +856,8 @@
       <c r="AN4" s="4"/>
       <c r="AO4" s="4"/>
       <c r="AP4" s="4"/>
-      <c r="AQ4" s="4"/>
-    </row>
-    <row r="5" spans="1:43" x14ac:dyDescent="0.4">
+    </row>
+    <row r="5" spans="1:42" x14ac:dyDescent="0.4">
       <c r="B5" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="B5" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A5,";",REPT(" ",LEN(A5)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A5)-LEN(SUBSTITUTE(A5,";",""))+1))*LEN(A5)+1,LEN(A5)+1)))</f>
         <v/>
@@ -899,7 +889,7 @@
       <c r="AA5" s="1"/>
       <c r="AB5" s="1"/>
       <c r="AC5" s="1"/>
-      <c r="AD5" s="1"/>
+      <c r="AD5" s="4"/>
       <c r="AE5" s="4"/>
       <c r="AF5" s="4"/>
       <c r="AG5" s="4"/>
@@ -912,9 +902,8 @@
       <c r="AN5" s="4"/>
       <c r="AO5" s="4"/>
       <c r="AP5" s="4"/>
-      <c r="AQ5" s="4"/>
-    </row>
-    <row r="6" spans="1:43" x14ac:dyDescent="0.4">
+    </row>
+    <row r="6" spans="1:42" x14ac:dyDescent="0.4">
       <c r="B6" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="B6" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A6,";",REPT(" ",LEN(A6)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A6)-LEN(SUBSTITUTE(A6,";",""))+1))*LEN(A6)+1,LEN(A6)+1)))</f>
         <v/>
@@ -946,7 +935,7 @@
       <c r="AA6" s="1"/>
       <c r="AB6" s="1"/>
       <c r="AC6" s="1"/>
-      <c r="AD6" s="1"/>
+      <c r="AD6" s="4"/>
       <c r="AE6" s="4"/>
       <c r="AF6" s="4"/>
       <c r="AG6" s="4"/>
@@ -959,9 +948,8 @@
       <c r="AN6" s="4"/>
       <c r="AO6" s="4"/>
       <c r="AP6" s="4"/>
-      <c r="AQ6" s="4"/>
-    </row>
-    <row r="7" spans="1:43" x14ac:dyDescent="0.4">
+    </row>
+    <row r="7" spans="1:42" x14ac:dyDescent="0.4">
       <c r="B7" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="B7" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A7,";",REPT(" ",LEN(A7)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A7)-LEN(SUBSTITUTE(A7,";",""))+1))*LEN(A7)+1,LEN(A7)+1)))</f>
         <v/>
@@ -993,7 +981,7 @@
       <c r="AA7" s="1"/>
       <c r="AB7" s="1"/>
       <c r="AC7" s="1"/>
-      <c r="AD7" s="1"/>
+      <c r="AD7" s="4"/>
       <c r="AE7" s="4"/>
       <c r="AF7" s="4"/>
       <c r="AG7" s="4"/>
@@ -1006,9 +994,8 @@
       <c r="AN7" s="4"/>
       <c r="AO7" s="4"/>
       <c r="AP7" s="4"/>
-      <c r="AQ7" s="4"/>
-    </row>
-    <row r="8" spans="1:43" x14ac:dyDescent="0.4">
+    </row>
+    <row r="8" spans="1:42" x14ac:dyDescent="0.4">
       <c r="B8" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="B8" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A8,";",REPT(" ",LEN(A8)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A8)-LEN(SUBSTITUTE(A8,";",""))+1))*LEN(A8)+1,LEN(A8)+1)))</f>
         <v/>
@@ -1040,7 +1027,7 @@
       <c r="AA8" s="1"/>
       <c r="AB8" s="1"/>
       <c r="AC8" s="1"/>
-      <c r="AD8" s="1"/>
+      <c r="AD8" s="4"/>
       <c r="AE8" s="4"/>
       <c r="AF8" s="4"/>
       <c r="AG8" s="4"/>
@@ -1053,9 +1040,8 @@
       <c r="AN8" s="4"/>
       <c r="AO8" s="4"/>
       <c r="AP8" s="4"/>
-      <c r="AQ8" s="4"/>
-    </row>
-    <row r="9" spans="1:43" x14ac:dyDescent="0.4">
+    </row>
+    <row r="9" spans="1:42" x14ac:dyDescent="0.4">
       <c r="B9" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="B9" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A9,";",REPT(" ",LEN(A9)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A9)-LEN(SUBSTITUTE(A9,";",""))+1))*LEN(A9)+1,LEN(A9)+1)))</f>
         <v/>
@@ -1087,7 +1073,7 @@
       <c r="AA9" s="1"/>
       <c r="AB9" s="1"/>
       <c r="AC9" s="1"/>
-      <c r="AD9" s="1"/>
+      <c r="AD9" s="4"/>
       <c r="AE9" s="4"/>
       <c r="AF9" s="4"/>
       <c r="AG9" s="4"/>
@@ -1100,9 +1086,8 @@
       <c r="AN9" s="4"/>
       <c r="AO9" s="4"/>
       <c r="AP9" s="4"/>
-      <c r="AQ9" s="4"/>
-    </row>
-    <row r="10" spans="1:43" x14ac:dyDescent="0.4">
+    </row>
+    <row r="10" spans="1:42" x14ac:dyDescent="0.4">
       <c r="B10" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="B10" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A10,";",REPT(" ",LEN(A10)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A10)-LEN(SUBSTITUTE(A10,";",""))+1))*LEN(A10)+1,LEN(A10)+1)))</f>
         <v/>
@@ -1134,7 +1119,7 @@
       <c r="AA10" s="1"/>
       <c r="AB10" s="1"/>
       <c r="AC10" s="1"/>
-      <c r="AD10" s="1"/>
+      <c r="AD10" s="4"/>
       <c r="AE10" s="4"/>
       <c r="AF10" s="4"/>
       <c r="AG10" s="4"/>
@@ -1147,9 +1132,8 @@
       <c r="AN10" s="4"/>
       <c r="AO10" s="4"/>
       <c r="AP10" s="4"/>
-      <c r="AQ10" s="4"/>
-    </row>
-    <row r="11" spans="1:43" x14ac:dyDescent="0.4">
+    </row>
+    <row r="11" spans="1:42" x14ac:dyDescent="0.4">
       <c r="B11" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="B11" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A11,";",REPT(" ",LEN(A11)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A11)-LEN(SUBSTITUTE(A11,";",""))+1))*LEN(A11)+1,LEN(A11)+1)))</f>
         <v/>
@@ -1181,7 +1165,7 @@
       <c r="AA11" s="1"/>
       <c r="AB11" s="1"/>
       <c r="AC11" s="1"/>
-      <c r="AD11" s="1"/>
+      <c r="AD11" s="4"/>
       <c r="AE11" s="4"/>
       <c r="AF11" s="4"/>
       <c r="AG11" s="4"/>
@@ -1194,9 +1178,8 @@
       <c r="AN11" s="4"/>
       <c r="AO11" s="4"/>
       <c r="AP11" s="4"/>
-      <c r="AQ11" s="4"/>
-    </row>
-    <row r="12" spans="1:43" x14ac:dyDescent="0.4">
+    </row>
+    <row r="12" spans="1:42" x14ac:dyDescent="0.4">
       <c r="B12" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="B12" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A12,";",REPT(" ",LEN(A12)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A12)-LEN(SUBSTITUTE(A12,";",""))+1))*LEN(A12)+1,LEN(A12)+1)))</f>
         <v/>
@@ -1228,7 +1211,7 @@
       <c r="AA12" s="1"/>
       <c r="AB12" s="1"/>
       <c r="AC12" s="1"/>
-      <c r="AD12" s="1"/>
+      <c r="AD12" s="4"/>
       <c r="AE12" s="4"/>
       <c r="AF12" s="4"/>
       <c r="AG12" s="4"/>
@@ -1241,9 +1224,8 @@
       <c r="AN12" s="4"/>
       <c r="AO12" s="4"/>
       <c r="AP12" s="4"/>
-      <c r="AQ12" s="4"/>
-    </row>
-    <row r="13" spans="1:43" x14ac:dyDescent="0.4">
+    </row>
+    <row r="13" spans="1:42" x14ac:dyDescent="0.4">
       <c r="B13" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="B13" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A13,";",REPT(" ",LEN(A13)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A13)-LEN(SUBSTITUTE(A13,";",""))+1))*LEN(A13)+1,LEN(A13)+1)))</f>
         <v/>
@@ -1275,7 +1257,7 @@
       <c r="AA13" s="1"/>
       <c r="AB13" s="1"/>
       <c r="AC13" s="1"/>
-      <c r="AD13" s="1"/>
+      <c r="AD13" s="4"/>
       <c r="AE13" s="4"/>
       <c r="AF13" s="4"/>
       <c r="AG13" s="4"/>
@@ -1288,9 +1270,8 @@
       <c r="AN13" s="4"/>
       <c r="AO13" s="4"/>
       <c r="AP13" s="4"/>
-      <c r="AQ13" s="4"/>
-    </row>
-    <row r="14" spans="1:43" x14ac:dyDescent="0.4">
+    </row>
+    <row r="14" spans="1:42" x14ac:dyDescent="0.4">
       <c r="B14" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="B14" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A14,";",REPT(" ",LEN(A14)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A14)-LEN(SUBSTITUTE(A14,";",""))+1))*LEN(A14)+1,LEN(A14)+1)))</f>
         <v/>
@@ -1322,7 +1303,7 @@
       <c r="AA14" s="1"/>
       <c r="AB14" s="1"/>
       <c r="AC14" s="1"/>
-      <c r="AD14" s="1"/>
+      <c r="AD14" s="4"/>
       <c r="AE14" s="4"/>
       <c r="AF14" s="4"/>
       <c r="AG14" s="4"/>
@@ -1335,9 +1316,8 @@
       <c r="AN14" s="4"/>
       <c r="AO14" s="4"/>
       <c r="AP14" s="4"/>
-      <c r="AQ14" s="4"/>
-    </row>
-    <row r="15" spans="1:43" x14ac:dyDescent="0.4">
+    </row>
+    <row r="15" spans="1:42" x14ac:dyDescent="0.4">
       <c r="B15" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="B15" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A15,";",REPT(" ",LEN(A15)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A15)-LEN(SUBSTITUTE(A15,";",""))+1))*LEN(A15)+1,LEN(A15)+1)))</f>
         <v/>
@@ -1369,7 +1349,7 @@
       <c r="AA15" s="1"/>
       <c r="AB15" s="1"/>
       <c r="AC15" s="1"/>
-      <c r="AD15" s="1"/>
+      <c r="AD15" s="4"/>
       <c r="AE15" s="4"/>
       <c r="AF15" s="4"/>
       <c r="AG15" s="4"/>
@@ -1382,9 +1362,8 @@
       <c r="AN15" s="4"/>
       <c r="AO15" s="4"/>
       <c r="AP15" s="4"/>
-      <c r="AQ15" s="4"/>
-    </row>
-    <row r="16" spans="1:43" x14ac:dyDescent="0.4">
+    </row>
+    <row r="16" spans="1:42" x14ac:dyDescent="0.4">
       <c r="B16" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="B16" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A16,";",REPT(" ",LEN(A16)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A16)-LEN(SUBSTITUTE(A16,";",""))+1))*LEN(A16)+1,LEN(A16)+1)))</f>
         <v/>
@@ -1416,7 +1395,7 @@
       <c r="AA16" s="1"/>
       <c r="AB16" s="1"/>
       <c r="AC16" s="1"/>
-      <c r="AD16" s="1"/>
+      <c r="AD16" s="4"/>
       <c r="AE16" s="4"/>
       <c r="AF16" s="4"/>
       <c r="AG16" s="4"/>
@@ -1429,9 +1408,8 @@
       <c r="AN16" s="4"/>
       <c r="AO16" s="4"/>
       <c r="AP16" s="4"/>
-      <c r="AQ16" s="4"/>
-    </row>
-    <row r="17" spans="2:43" x14ac:dyDescent="0.4">
+    </row>
+    <row r="17" spans="2:42" x14ac:dyDescent="0.4">
       <c r="B17" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="B17" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A17,";",REPT(" ",LEN(A17)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A17)-LEN(SUBSTITUTE(A17,";",""))+1))*LEN(A17)+1,LEN(A17)+1)))</f>
         <v/>
@@ -1463,7 +1441,7 @@
       <c r="AA17" s="1"/>
       <c r="AB17" s="1"/>
       <c r="AC17" s="1"/>
-      <c r="AD17" s="1"/>
+      <c r="AD17" s="4"/>
       <c r="AE17" s="4"/>
       <c r="AF17" s="4"/>
       <c r="AG17" s="4"/>
@@ -1476,9 +1454,8 @@
       <c r="AN17" s="4"/>
       <c r="AO17" s="4"/>
       <c r="AP17" s="4"/>
-      <c r="AQ17" s="4"/>
-    </row>
-    <row r="18" spans="2:43" x14ac:dyDescent="0.4">
+    </row>
+    <row r="18" spans="2:42" x14ac:dyDescent="0.4">
       <c r="B18" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="B18" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A18,";",REPT(" ",LEN(A18)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A18)-LEN(SUBSTITUTE(A18,";",""))+1))*LEN(A18)+1,LEN(A18)+1)))</f>
         <v/>
@@ -1510,7 +1487,7 @@
       <c r="AA18" s="1"/>
       <c r="AB18" s="1"/>
       <c r="AC18" s="1"/>
-      <c r="AD18" s="1"/>
+      <c r="AD18" s="4"/>
       <c r="AE18" s="4"/>
       <c r="AF18" s="4"/>
       <c r="AG18" s="4"/>
@@ -1523,9 +1500,8 @@
       <c r="AN18" s="4"/>
       <c r="AO18" s="4"/>
       <c r="AP18" s="4"/>
-      <c r="AQ18" s="4"/>
-    </row>
-    <row r="19" spans="2:43" x14ac:dyDescent="0.4">
+    </row>
+    <row r="19" spans="2:42" x14ac:dyDescent="0.4">
       <c r="B19" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="B19" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A19,";",REPT(" ",LEN(A19)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A19)-LEN(SUBSTITUTE(A19,";",""))+1))*LEN(A19)+1,LEN(A19)+1)))</f>
         <v/>
@@ -1557,7 +1533,7 @@
       <c r="AA19" s="1"/>
       <c r="AB19" s="1"/>
       <c r="AC19" s="1"/>
-      <c r="AD19" s="1"/>
+      <c r="AD19" s="4"/>
       <c r="AE19" s="4"/>
       <c r="AF19" s="4"/>
       <c r="AG19" s="4"/>
@@ -1570,7 +1546,6 @@
       <c r="AN19" s="4"/>
       <c r="AO19" s="4"/>
       <c r="AP19" s="4"/>
-      <c r="AQ19" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -1581,19 +1556,19 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1048276-8A82-4E9E-96B8-21ABC897CB97}">
-  <dimension ref="A1:AQ19"/>
+  <dimension ref="A1:AP19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView topLeftCell="O1" workbookViewId="0">
+      <selection activeCell="I1" sqref="I1:I1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="20.69921875" customWidth="1"/>
-    <col min="2" max="30" width="10.69921875" customWidth="1"/>
+    <col min="2" max="29" width="10.69921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:43" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:42" x14ac:dyDescent="0.4">
       <c r="A1" t="str">
         <f>Insert!A1</f>
         <v>Insert decoded qr code</v>
@@ -1677,14 +1652,12 @@
         <v>25</v>
       </c>
       <c r="AB1" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="AC1" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="AC1" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="AD1" s="5" t="s">
-        <v>27</v>
-      </c>
+      <c r="AD1" s="3"/>
       <c r="AE1" s="3"/>
       <c r="AF1" s="3"/>
       <c r="AG1" s="3"/>
@@ -1697,9 +1670,8 @@
       <c r="AN1" s="3"/>
       <c r="AO1" s="3"/>
       <c r="AP1" s="3"/>
-      <c r="AQ1" s="3"/>
-    </row>
-    <row r="2" spans="1:43" x14ac:dyDescent="0.4">
+    </row>
+    <row r="2" spans="1:42" x14ac:dyDescent="0.4">
       <c r="A2">
         <f>Insert!A2</f>
         <v>0</v>
@@ -1735,7 +1707,7 @@
       <c r="AA2" s="1"/>
       <c r="AB2" s="1"/>
       <c r="AC2" s="1"/>
-      <c r="AD2" s="1"/>
+      <c r="AD2" s="4"/>
       <c r="AE2" s="4"/>
       <c r="AF2" s="4"/>
       <c r="AG2" s="4"/>
@@ -1748,9 +1720,8 @@
       <c r="AN2" s="4"/>
       <c r="AO2" s="4"/>
       <c r="AP2" s="4"/>
-      <c r="AQ2" s="4"/>
-    </row>
-    <row r="3" spans="1:43" x14ac:dyDescent="0.4">
+    </row>
+    <row r="3" spans="1:42" x14ac:dyDescent="0.4">
       <c r="A3">
         <f>Insert!A3</f>
         <v>0</v>
@@ -1786,7 +1757,7 @@
       <c r="AA3" s="1"/>
       <c r="AB3" s="1"/>
       <c r="AC3" s="1"/>
-      <c r="AD3" s="1"/>
+      <c r="AD3" s="4"/>
       <c r="AE3" s="4"/>
       <c r="AF3" s="4"/>
       <c r="AG3" s="4"/>
@@ -1799,9 +1770,8 @@
       <c r="AN3" s="4"/>
       <c r="AO3" s="4"/>
       <c r="AP3" s="4"/>
-      <c r="AQ3" s="4"/>
-    </row>
-    <row r="4" spans="1:43" x14ac:dyDescent="0.4">
+    </row>
+    <row r="4" spans="1:42" x14ac:dyDescent="0.4">
       <c r="A4">
         <f>Insert!A4</f>
         <v>0</v>
@@ -1837,7 +1807,7 @@
       <c r="AA4" s="1"/>
       <c r="AB4" s="1"/>
       <c r="AC4" s="1"/>
-      <c r="AD4" s="1"/>
+      <c r="AD4" s="4"/>
       <c r="AE4" s="4"/>
       <c r="AF4" s="4"/>
       <c r="AG4" s="4"/>
@@ -1850,9 +1820,8 @@
       <c r="AN4" s="4"/>
       <c r="AO4" s="4"/>
       <c r="AP4" s="4"/>
-      <c r="AQ4" s="4"/>
-    </row>
-    <row r="5" spans="1:43" x14ac:dyDescent="0.4">
+    </row>
+    <row r="5" spans="1:42" x14ac:dyDescent="0.4">
       <c r="A5">
         <f>Insert!A5</f>
         <v>0</v>
@@ -1888,7 +1857,7 @@
       <c r="AA5" s="1"/>
       <c r="AB5" s="1"/>
       <c r="AC5" s="1"/>
-      <c r="AD5" s="1"/>
+      <c r="AD5" s="4"/>
       <c r="AE5" s="4"/>
       <c r="AF5" s="4"/>
       <c r="AG5" s="4"/>
@@ -1901,9 +1870,8 @@
       <c r="AN5" s="4"/>
       <c r="AO5" s="4"/>
       <c r="AP5" s="4"/>
-      <c r="AQ5" s="4"/>
-    </row>
-    <row r="6" spans="1:43" x14ac:dyDescent="0.4">
+    </row>
+    <row r="6" spans="1:42" x14ac:dyDescent="0.4">
       <c r="A6">
         <f>Insert!A6</f>
         <v>0</v>
@@ -1939,7 +1907,7 @@
       <c r="AA6" s="1"/>
       <c r="AB6" s="1"/>
       <c r="AC6" s="1"/>
-      <c r="AD6" s="1"/>
+      <c r="AD6" s="4"/>
       <c r="AE6" s="4"/>
       <c r="AF6" s="4"/>
       <c r="AG6" s="4"/>
@@ -1952,9 +1920,8 @@
       <c r="AN6" s="4"/>
       <c r="AO6" s="4"/>
       <c r="AP6" s="4"/>
-      <c r="AQ6" s="4"/>
-    </row>
-    <row r="7" spans="1:43" x14ac:dyDescent="0.4">
+    </row>
+    <row r="7" spans="1:42" x14ac:dyDescent="0.4">
       <c r="A7">
         <f>Insert!A7</f>
         <v>0</v>
@@ -1990,7 +1957,7 @@
       <c r="AA7" s="1"/>
       <c r="AB7" s="1"/>
       <c r="AC7" s="1"/>
-      <c r="AD7" s="1"/>
+      <c r="AD7" s="4"/>
       <c r="AE7" s="4"/>
       <c r="AF7" s="4"/>
       <c r="AG7" s="4"/>
@@ -2003,9 +1970,8 @@
       <c r="AN7" s="4"/>
       <c r="AO7" s="4"/>
       <c r="AP7" s="4"/>
-      <c r="AQ7" s="4"/>
-    </row>
-    <row r="8" spans="1:43" x14ac:dyDescent="0.4">
+    </row>
+    <row r="8" spans="1:42" x14ac:dyDescent="0.4">
       <c r="A8">
         <f>Insert!A8</f>
         <v>0</v>
@@ -2041,7 +2007,7 @@
       <c r="AA8" s="1"/>
       <c r="AB8" s="1"/>
       <c r="AC8" s="1"/>
-      <c r="AD8" s="1"/>
+      <c r="AD8" s="4"/>
       <c r="AE8" s="4"/>
       <c r="AF8" s="4"/>
       <c r="AG8" s="4"/>
@@ -2054,9 +2020,8 @@
       <c r="AN8" s="4"/>
       <c r="AO8" s="4"/>
       <c r="AP8" s="4"/>
-      <c r="AQ8" s="4"/>
-    </row>
-    <row r="9" spans="1:43" x14ac:dyDescent="0.4">
+    </row>
+    <row r="9" spans="1:42" x14ac:dyDescent="0.4">
       <c r="A9">
         <f>Insert!A9</f>
         <v>0</v>
@@ -2092,7 +2057,7 @@
       <c r="AA9" s="1"/>
       <c r="AB9" s="1"/>
       <c r="AC9" s="1"/>
-      <c r="AD9" s="1"/>
+      <c r="AD9" s="4"/>
       <c r="AE9" s="4"/>
       <c r="AF9" s="4"/>
       <c r="AG9" s="4"/>
@@ -2105,9 +2070,8 @@
       <c r="AN9" s="4"/>
       <c r="AO9" s="4"/>
       <c r="AP9" s="4"/>
-      <c r="AQ9" s="4"/>
-    </row>
-    <row r="10" spans="1:43" x14ac:dyDescent="0.4">
+    </row>
+    <row r="10" spans="1:42" x14ac:dyDescent="0.4">
       <c r="A10">
         <f>Insert!A10</f>
         <v>0</v>
@@ -2143,7 +2107,7 @@
       <c r="AA10" s="1"/>
       <c r="AB10" s="1"/>
       <c r="AC10" s="1"/>
-      <c r="AD10" s="1"/>
+      <c r="AD10" s="4"/>
       <c r="AE10" s="4"/>
       <c r="AF10" s="4"/>
       <c r="AG10" s="4"/>
@@ -2156,9 +2120,8 @@
       <c r="AN10" s="4"/>
       <c r="AO10" s="4"/>
       <c r="AP10" s="4"/>
-      <c r="AQ10" s="4"/>
-    </row>
-    <row r="11" spans="1:43" x14ac:dyDescent="0.4">
+    </row>
+    <row r="11" spans="1:42" x14ac:dyDescent="0.4">
       <c r="A11">
         <f>Insert!A11</f>
         <v>0</v>
@@ -2194,7 +2157,7 @@
       <c r="AA11" s="1"/>
       <c r="AB11" s="1"/>
       <c r="AC11" s="1"/>
-      <c r="AD11" s="1"/>
+      <c r="AD11" s="4"/>
       <c r="AE11" s="4"/>
       <c r="AF11" s="4"/>
       <c r="AG11" s="4"/>
@@ -2207,9 +2170,8 @@
       <c r="AN11" s="4"/>
       <c r="AO11" s="4"/>
       <c r="AP11" s="4"/>
-      <c r="AQ11" s="4"/>
-    </row>
-    <row r="12" spans="1:43" x14ac:dyDescent="0.4">
+    </row>
+    <row r="12" spans="1:42" x14ac:dyDescent="0.4">
       <c r="A12">
         <f>Insert!A12</f>
         <v>0</v>
@@ -2245,7 +2207,7 @@
       <c r="AA12" s="1"/>
       <c r="AB12" s="1"/>
       <c r="AC12" s="1"/>
-      <c r="AD12" s="1"/>
+      <c r="AD12" s="4"/>
       <c r="AE12" s="4"/>
       <c r="AF12" s="4"/>
       <c r="AG12" s="4"/>
@@ -2258,9 +2220,8 @@
       <c r="AN12" s="4"/>
       <c r="AO12" s="4"/>
       <c r="AP12" s="4"/>
-      <c r="AQ12" s="4"/>
-    </row>
-    <row r="13" spans="1:43" x14ac:dyDescent="0.4">
+    </row>
+    <row r="13" spans="1:42" x14ac:dyDescent="0.4">
       <c r="A13">
         <f>Insert!A13</f>
         <v>0</v>
@@ -2296,7 +2257,7 @@
       <c r="AA13" s="1"/>
       <c r="AB13" s="1"/>
       <c r="AC13" s="1"/>
-      <c r="AD13" s="1"/>
+      <c r="AD13" s="4"/>
       <c r="AE13" s="4"/>
       <c r="AF13" s="4"/>
       <c r="AG13" s="4"/>
@@ -2309,9 +2270,8 @@
       <c r="AN13" s="4"/>
       <c r="AO13" s="4"/>
       <c r="AP13" s="4"/>
-      <c r="AQ13" s="4"/>
-    </row>
-    <row r="14" spans="1:43" x14ac:dyDescent="0.4">
+    </row>
+    <row r="14" spans="1:42" x14ac:dyDescent="0.4">
       <c r="A14">
         <f>Insert!A14</f>
         <v>0</v>
@@ -2347,7 +2307,7 @@
       <c r="AA14" s="1"/>
       <c r="AB14" s="1"/>
       <c r="AC14" s="1"/>
-      <c r="AD14" s="1"/>
+      <c r="AD14" s="4"/>
       <c r="AE14" s="4"/>
       <c r="AF14" s="4"/>
       <c r="AG14" s="4"/>
@@ -2360,9 +2320,8 @@
       <c r="AN14" s="4"/>
       <c r="AO14" s="4"/>
       <c r="AP14" s="4"/>
-      <c r="AQ14" s="4"/>
-    </row>
-    <row r="15" spans="1:43" x14ac:dyDescent="0.4">
+    </row>
+    <row r="15" spans="1:42" x14ac:dyDescent="0.4">
       <c r="A15">
         <f>Insert!A15</f>
         <v>0</v>
@@ -2398,7 +2357,7 @@
       <c r="AA15" s="1"/>
       <c r="AB15" s="1"/>
       <c r="AC15" s="1"/>
-      <c r="AD15" s="1"/>
+      <c r="AD15" s="4"/>
       <c r="AE15" s="4"/>
       <c r="AF15" s="4"/>
       <c r="AG15" s="4"/>
@@ -2411,9 +2370,8 @@
       <c r="AN15" s="4"/>
       <c r="AO15" s="4"/>
       <c r="AP15" s="4"/>
-      <c r="AQ15" s="4"/>
-    </row>
-    <row r="16" spans="1:43" x14ac:dyDescent="0.4">
+    </row>
+    <row r="16" spans="1:42" x14ac:dyDescent="0.4">
       <c r="A16">
         <f>Insert!A16</f>
         <v>0</v>
@@ -2449,7 +2407,7 @@
       <c r="AA16" s="1"/>
       <c r="AB16" s="1"/>
       <c r="AC16" s="1"/>
-      <c r="AD16" s="1"/>
+      <c r="AD16" s="4"/>
       <c r="AE16" s="4"/>
       <c r="AF16" s="4"/>
       <c r="AG16" s="4"/>
@@ -2462,9 +2420,8 @@
       <c r="AN16" s="4"/>
       <c r="AO16" s="4"/>
       <c r="AP16" s="4"/>
-      <c r="AQ16" s="4"/>
-    </row>
-    <row r="17" spans="1:43" x14ac:dyDescent="0.4">
+    </row>
+    <row r="17" spans="1:42" x14ac:dyDescent="0.4">
       <c r="A17">
         <f>Insert!A17</f>
         <v>0</v>
@@ -2500,7 +2457,7 @@
       <c r="AA17" s="1"/>
       <c r="AB17" s="1"/>
       <c r="AC17" s="1"/>
-      <c r="AD17" s="1"/>
+      <c r="AD17" s="4"/>
       <c r="AE17" s="4"/>
       <c r="AF17" s="4"/>
       <c r="AG17" s="4"/>
@@ -2513,9 +2470,8 @@
       <c r="AN17" s="4"/>
       <c r="AO17" s="4"/>
       <c r="AP17" s="4"/>
-      <c r="AQ17" s="4"/>
-    </row>
-    <row r="18" spans="1:43" x14ac:dyDescent="0.4">
+    </row>
+    <row r="18" spans="1:42" x14ac:dyDescent="0.4">
       <c r="A18">
         <f>Insert!A18</f>
         <v>0</v>
@@ -2551,7 +2507,7 @@
       <c r="AA18" s="1"/>
       <c r="AB18" s="1"/>
       <c r="AC18" s="1"/>
-      <c r="AD18" s="1"/>
+      <c r="AD18" s="4"/>
       <c r="AE18" s="4"/>
       <c r="AF18" s="4"/>
       <c r="AG18" s="4"/>
@@ -2564,9 +2520,8 @@
       <c r="AN18" s="4"/>
       <c r="AO18" s="4"/>
       <c r="AP18" s="4"/>
-      <c r="AQ18" s="4"/>
-    </row>
-    <row r="19" spans="1:43" x14ac:dyDescent="0.4">
+    </row>
+    <row r="19" spans="1:42" x14ac:dyDescent="0.4">
       <c r="A19">
         <f>Insert!A19</f>
         <v>0</v>
@@ -2602,7 +2557,7 @@
       <c r="AA19" s="1"/>
       <c r="AB19" s="1"/>
       <c r="AC19" s="1"/>
-      <c r="AD19" s="1"/>
+      <c r="AD19" s="4"/>
       <c r="AE19" s="4"/>
       <c r="AF19" s="4"/>
       <c r="AG19" s="4"/>
@@ -2615,7 +2570,6 @@
       <c r="AN19" s="4"/>
       <c r="AO19" s="4"/>
       <c r="AP19" s="4"/>
-      <c r="AQ19" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/Excel/ScoutingPASS_QRReader.xlsx
+++ b/Excel/ScoutingPASS_QRReader.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hajuw\Desktop\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBB25D0A-4436-42E8-9629-9940FE1207D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5065AA92-C079-4166-BE06-18EDAB0C8FAA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{A46E49DD-D669-429F-AA31-B068C359770D}"/>
   </bookViews>
@@ -608,7 +608,7 @@
   <dimension ref="A1:AP19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="S1" sqref="S1:W1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -673,25 +673,25 @@
         <v>16</v>
       </c>
       <c r="S1" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="T1" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="U1" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="V1" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="W1" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="X1" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="T1" s="2" t="s">
+      <c r="Y1" s="2" t="s">
         <v>18</v>
-      </c>
-      <c r="U1" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="V1" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="W1" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="X1" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="Y1" s="2" t="s">
-        <v>23</v>
       </c>
       <c r="Z1" s="2" t="s">
         <v>24</v>
@@ -713,11 +713,6 @@
       <c r="AI1" s="3"/>
       <c r="AJ1" s="3"/>
       <c r="AK1" s="3"/>
-      <c r="AL1" s="3"/>
-      <c r="AM1" s="3"/>
-      <c r="AN1" s="3"/>
-      <c r="AO1" s="3"/>
-      <c r="AP1" s="3"/>
     </row>
     <row r="2" spans="1:42" x14ac:dyDescent="0.4">
       <c r="B2" s="1" t="str" cm="1">

--- a/Excel/ScoutingPASS_QRReader.xlsx
+++ b/Excel/ScoutingPASS_QRReader.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hajuw\Desktop\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5065AA92-C079-4166-BE06-18EDAB0C8FAA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95C772A8-D2A8-4265-8352-A7E2A347CEC3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{A46E49DD-D669-429F-AA31-B068C359770D}"/>
   </bookViews>
@@ -607,8 +607,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0977C36-33F4-4B0D-9C5F-2DAE4DD4F224}">
   <dimension ref="A1:AP19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S1" sqref="S1:W1"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -628,7 +628,7 @@
         <v>1</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>3</v>
@@ -637,7 +637,7 @@
         <v>4</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H1" s="2" t="s">
         <v>6</v>
@@ -718,6 +718,944 @@
       <c r="B2" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="B2" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A2,";",REPT(" ",LEN(A2)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A2)-LEN(SUBSTITUTE(A2,";",""))+1))*LEN(A2)+1,LEN(A2)+1)))</f>
         <v/>
+      </c>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1"/>
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+      <c r="L2" s="1"/>
+      <c r="M2" s="1"/>
+      <c r="N2" s="1"/>
+      <c r="O2" s="1"/>
+      <c r="P2" s="1"/>
+      <c r="Q2" s="1"/>
+      <c r="R2" s="1"/>
+      <c r="S2" s="1"/>
+      <c r="T2" s="1"/>
+      <c r="U2" s="1"/>
+      <c r="V2" s="1"/>
+      <c r="W2" s="1"/>
+      <c r="X2" s="1"/>
+      <c r="Y2" s="1"/>
+      <c r="Z2" s="1"/>
+      <c r="AA2" s="1"/>
+      <c r="AB2" s="1"/>
+      <c r="AC2" s="1"/>
+      <c r="AD2" s="4"/>
+      <c r="AE2" s="4"/>
+      <c r="AF2" s="4"/>
+      <c r="AG2" s="4"/>
+      <c r="AH2" s="4"/>
+      <c r="AI2" s="4"/>
+      <c r="AJ2" s="4"/>
+      <c r="AK2" s="4"/>
+      <c r="AL2" s="4"/>
+      <c r="AN2" s="4"/>
+      <c r="AO2" s="4"/>
+      <c r="AP2" s="4"/>
+    </row>
+    <row r="3" spans="1:42" x14ac:dyDescent="0.4">
+      <c r="B3" s="1" t="str" cm="1">
+        <f t="array" aca="1" ref="B3" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A3,";",REPT(" ",LEN(A3)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A3)-LEN(SUBSTITUTE(A3,";",""))+1))*LEN(A3)+1,LEN(A3)+1)))</f>
+        <v/>
+      </c>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1"/>
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
+      <c r="L3" s="1"/>
+      <c r="M3" s="1"/>
+      <c r="N3" s="1"/>
+      <c r="O3" s="1"/>
+      <c r="P3" s="1"/>
+      <c r="Q3" s="1"/>
+      <c r="R3" s="1"/>
+      <c r="S3" s="1"/>
+      <c r="T3" s="1"/>
+      <c r="U3" s="1"/>
+      <c r="V3" s="1"/>
+      <c r="W3" s="1"/>
+      <c r="X3" s="1"/>
+      <c r="Y3" s="1"/>
+      <c r="Z3" s="1"/>
+      <c r="AA3" s="1"/>
+      <c r="AB3" s="1"/>
+      <c r="AC3" s="1"/>
+      <c r="AD3" s="4"/>
+      <c r="AE3" s="4"/>
+      <c r="AF3" s="4"/>
+      <c r="AG3" s="4"/>
+      <c r="AH3" s="4"/>
+      <c r="AI3" s="4"/>
+      <c r="AJ3" s="4"/>
+      <c r="AK3" s="4"/>
+      <c r="AL3" s="4"/>
+      <c r="AN3" s="4"/>
+      <c r="AO3" s="4"/>
+      <c r="AP3" s="4"/>
+    </row>
+    <row r="4" spans="1:42" x14ac:dyDescent="0.4">
+      <c r="B4" s="1" t="str" cm="1">
+        <f t="array" aca="1" ref="B4" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A4,";",REPT(" ",LEN(A4)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A4)-LEN(SUBSTITUTE(A4,";",""))+1))*LEN(A4)+1,LEN(A4)+1)))</f>
+        <v/>
+      </c>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1"/>
+      <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
+      <c r="L4" s="1"/>
+      <c r="M4" s="1"/>
+      <c r="N4" s="1"/>
+      <c r="O4" s="1"/>
+      <c r="P4" s="1"/>
+      <c r="Q4" s="1"/>
+      <c r="R4" s="1"/>
+      <c r="S4" s="1"/>
+      <c r="T4" s="1"/>
+      <c r="U4" s="1"/>
+      <c r="V4" s="1"/>
+      <c r="W4" s="1"/>
+      <c r="X4" s="1"/>
+      <c r="Y4" s="1"/>
+      <c r="Z4" s="1"/>
+      <c r="AA4" s="1"/>
+      <c r="AB4" s="1"/>
+      <c r="AC4" s="1"/>
+      <c r="AD4" s="4"/>
+      <c r="AE4" s="4"/>
+      <c r="AF4" s="4"/>
+      <c r="AG4" s="4"/>
+      <c r="AH4" s="4"/>
+      <c r="AI4" s="4"/>
+      <c r="AJ4" s="4"/>
+      <c r="AK4" s="4"/>
+      <c r="AL4" s="4"/>
+      <c r="AN4" s="4"/>
+      <c r="AO4" s="4"/>
+      <c r="AP4" s="4"/>
+    </row>
+    <row r="5" spans="1:42" x14ac:dyDescent="0.4">
+      <c r="B5" s="1" t="str" cm="1">
+        <f t="array" aca="1" ref="B5" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A5,";",REPT(" ",LEN(A5)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A5)-LEN(SUBSTITUTE(A5,";",""))+1))*LEN(A5)+1,LEN(A5)+1)))</f>
+        <v/>
+      </c>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1"/>
+      <c r="J5" s="1"/>
+      <c r="K5" s="1"/>
+      <c r="L5" s="1"/>
+      <c r="M5" s="1"/>
+      <c r="N5" s="1"/>
+      <c r="O5" s="1"/>
+      <c r="P5" s="1"/>
+      <c r="Q5" s="1"/>
+      <c r="R5" s="1"/>
+      <c r="S5" s="1"/>
+      <c r="T5" s="1"/>
+      <c r="U5" s="1"/>
+      <c r="V5" s="1"/>
+      <c r="W5" s="1"/>
+      <c r="X5" s="1"/>
+      <c r="Y5" s="1"/>
+      <c r="Z5" s="1"/>
+      <c r="AA5" s="1"/>
+      <c r="AB5" s="1"/>
+      <c r="AC5" s="1"/>
+      <c r="AD5" s="4"/>
+      <c r="AE5" s="4"/>
+      <c r="AF5" s="4"/>
+      <c r="AG5" s="4"/>
+      <c r="AH5" s="4"/>
+      <c r="AI5" s="4"/>
+      <c r="AJ5" s="4"/>
+      <c r="AK5" s="4"/>
+      <c r="AL5" s="4"/>
+      <c r="AN5" s="4"/>
+      <c r="AO5" s="4"/>
+      <c r="AP5" s="4"/>
+    </row>
+    <row r="6" spans="1:42" x14ac:dyDescent="0.4">
+      <c r="B6" s="1" t="str" cm="1">
+        <f t="array" aca="1" ref="B6" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A6,";",REPT(" ",LEN(A6)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A6)-LEN(SUBSTITUTE(A6,";",""))+1))*LEN(A6)+1,LEN(A6)+1)))</f>
+        <v/>
+      </c>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+      <c r="I6" s="1"/>
+      <c r="J6" s="1"/>
+      <c r="K6" s="1"/>
+      <c r="L6" s="1"/>
+      <c r="M6" s="1"/>
+      <c r="N6" s="1"/>
+      <c r="O6" s="1"/>
+      <c r="P6" s="1"/>
+      <c r="Q6" s="1"/>
+      <c r="R6" s="1"/>
+      <c r="S6" s="1"/>
+      <c r="T6" s="1"/>
+      <c r="U6" s="1"/>
+      <c r="V6" s="1"/>
+      <c r="W6" s="1"/>
+      <c r="X6" s="1"/>
+      <c r="Y6" s="1"/>
+      <c r="Z6" s="1"/>
+      <c r="AA6" s="1"/>
+      <c r="AB6" s="1"/>
+      <c r="AC6" s="1"/>
+      <c r="AD6" s="4"/>
+      <c r="AE6" s="4"/>
+      <c r="AF6" s="4"/>
+      <c r="AG6" s="4"/>
+      <c r="AH6" s="4"/>
+      <c r="AI6" s="4"/>
+      <c r="AJ6" s="4"/>
+      <c r="AK6" s="4"/>
+      <c r="AL6" s="4"/>
+      <c r="AN6" s="4"/>
+      <c r="AO6" s="4"/>
+      <c r="AP6" s="4"/>
+    </row>
+    <row r="7" spans="1:42" x14ac:dyDescent="0.4">
+      <c r="B7" s="1" t="str" cm="1">
+        <f t="array" aca="1" ref="B7" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A7,";",REPT(" ",LEN(A7)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A7)-LEN(SUBSTITUTE(A7,";",""))+1))*LEN(A7)+1,LEN(A7)+1)))</f>
+        <v/>
+      </c>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
+      <c r="I7" s="1"/>
+      <c r="J7" s="1"/>
+      <c r="K7" s="1"/>
+      <c r="L7" s="1"/>
+      <c r="M7" s="1"/>
+      <c r="N7" s="1"/>
+      <c r="O7" s="1"/>
+      <c r="P7" s="1"/>
+      <c r="Q7" s="1"/>
+      <c r="R7" s="1"/>
+      <c r="S7" s="1"/>
+      <c r="T7" s="1"/>
+      <c r="U7" s="1"/>
+      <c r="V7" s="1"/>
+      <c r="W7" s="1"/>
+      <c r="X7" s="1"/>
+      <c r="Y7" s="1"/>
+      <c r="Z7" s="1"/>
+      <c r="AA7" s="1"/>
+      <c r="AB7" s="1"/>
+      <c r="AC7" s="1"/>
+      <c r="AD7" s="4"/>
+      <c r="AE7" s="4"/>
+      <c r="AF7" s="4"/>
+      <c r="AG7" s="4"/>
+      <c r="AH7" s="4"/>
+      <c r="AI7" s="4"/>
+      <c r="AJ7" s="4"/>
+      <c r="AK7" s="4"/>
+      <c r="AL7" s="4"/>
+      <c r="AN7" s="4"/>
+      <c r="AO7" s="4"/>
+      <c r="AP7" s="4"/>
+    </row>
+    <row r="8" spans="1:42" x14ac:dyDescent="0.4">
+      <c r="B8" s="1" t="str" cm="1">
+        <f t="array" aca="1" ref="B8" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A8,";",REPT(" ",LEN(A8)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A8)-LEN(SUBSTITUTE(A8,";",""))+1))*LEN(A8)+1,LEN(A8)+1)))</f>
+        <v/>
+      </c>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
+      <c r="I8" s="1"/>
+      <c r="J8" s="1"/>
+      <c r="K8" s="1"/>
+      <c r="L8" s="1"/>
+      <c r="M8" s="1"/>
+      <c r="N8" s="1"/>
+      <c r="O8" s="1"/>
+      <c r="P8" s="1"/>
+      <c r="Q8" s="1"/>
+      <c r="R8" s="1"/>
+      <c r="S8" s="1"/>
+      <c r="T8" s="1"/>
+      <c r="U8" s="1"/>
+      <c r="V8" s="1"/>
+      <c r="W8" s="1"/>
+      <c r="X8" s="1"/>
+      <c r="Y8" s="1"/>
+      <c r="Z8" s="1"/>
+      <c r="AA8" s="1"/>
+      <c r="AB8" s="1"/>
+      <c r="AC8" s="1"/>
+      <c r="AD8" s="4"/>
+      <c r="AE8" s="4"/>
+      <c r="AF8" s="4"/>
+      <c r="AG8" s="4"/>
+      <c r="AH8" s="4"/>
+      <c r="AI8" s="4"/>
+      <c r="AJ8" s="4"/>
+      <c r="AK8" s="4"/>
+      <c r="AL8" s="4"/>
+      <c r="AN8" s="4"/>
+      <c r="AO8" s="4"/>
+      <c r="AP8" s="4"/>
+    </row>
+    <row r="9" spans="1:42" x14ac:dyDescent="0.4">
+      <c r="B9" s="1" t="str" cm="1">
+        <f t="array" aca="1" ref="B9" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A9,";",REPT(" ",LEN(A9)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A9)-LEN(SUBSTITUTE(A9,";",""))+1))*LEN(A9)+1,LEN(A9)+1)))</f>
+        <v/>
+      </c>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
+      <c r="I9" s="1"/>
+      <c r="J9" s="1"/>
+      <c r="K9" s="1"/>
+      <c r="L9" s="1"/>
+      <c r="M9" s="1"/>
+      <c r="N9" s="1"/>
+      <c r="O9" s="1"/>
+      <c r="P9" s="1"/>
+      <c r="Q9" s="1"/>
+      <c r="R9" s="1"/>
+      <c r="S9" s="1"/>
+      <c r="T9" s="1"/>
+      <c r="U9" s="1"/>
+      <c r="V9" s="1"/>
+      <c r="W9" s="1"/>
+      <c r="X9" s="1"/>
+      <c r="Y9" s="1"/>
+      <c r="Z9" s="1"/>
+      <c r="AA9" s="1"/>
+      <c r="AB9" s="1"/>
+      <c r="AC9" s="1"/>
+      <c r="AD9" s="4"/>
+      <c r="AE9" s="4"/>
+      <c r="AF9" s="4"/>
+      <c r="AG9" s="4"/>
+      <c r="AH9" s="4"/>
+      <c r="AI9" s="4"/>
+      <c r="AJ9" s="4"/>
+      <c r="AK9" s="4"/>
+      <c r="AL9" s="4"/>
+      <c r="AN9" s="4"/>
+      <c r="AO9" s="4"/>
+      <c r="AP9" s="4"/>
+    </row>
+    <row r="10" spans="1:42" x14ac:dyDescent="0.4">
+      <c r="B10" s="1" t="str" cm="1">
+        <f t="array" aca="1" ref="B10" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A10,";",REPT(" ",LEN(A10)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A10)-LEN(SUBSTITUTE(A10,";",""))+1))*LEN(A10)+1,LEN(A10)+1)))</f>
+        <v/>
+      </c>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+      <c r="I10" s="1"/>
+      <c r="J10" s="1"/>
+      <c r="K10" s="1"/>
+      <c r="L10" s="1"/>
+      <c r="M10" s="1"/>
+      <c r="N10" s="1"/>
+      <c r="O10" s="1"/>
+      <c r="P10" s="1"/>
+      <c r="Q10" s="1"/>
+      <c r="R10" s="1"/>
+      <c r="S10" s="1"/>
+      <c r="T10" s="1"/>
+      <c r="U10" s="1"/>
+      <c r="V10" s="1"/>
+      <c r="W10" s="1"/>
+      <c r="X10" s="1"/>
+      <c r="Y10" s="1"/>
+      <c r="Z10" s="1"/>
+      <c r="AA10" s="1"/>
+      <c r="AB10" s="1"/>
+      <c r="AC10" s="1"/>
+      <c r="AD10" s="4"/>
+      <c r="AE10" s="4"/>
+      <c r="AF10" s="4"/>
+      <c r="AG10" s="4"/>
+      <c r="AH10" s="4"/>
+      <c r="AI10" s="4"/>
+      <c r="AJ10" s="4"/>
+      <c r="AK10" s="4"/>
+      <c r="AL10" s="4"/>
+      <c r="AN10" s="4"/>
+      <c r="AO10" s="4"/>
+      <c r="AP10" s="4"/>
+    </row>
+    <row r="11" spans="1:42" x14ac:dyDescent="0.4">
+      <c r="B11" s="1" t="str" cm="1">
+        <f t="array" aca="1" ref="B11" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A11,";",REPT(" ",LEN(A11)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A11)-LEN(SUBSTITUTE(A11,";",""))+1))*LEN(A11)+1,LEN(A11)+1)))</f>
+        <v/>
+      </c>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
+      <c r="I11" s="1"/>
+      <c r="J11" s="1"/>
+      <c r="K11" s="1"/>
+      <c r="L11" s="1"/>
+      <c r="M11" s="1"/>
+      <c r="N11" s="1"/>
+      <c r="O11" s="1"/>
+      <c r="P11" s="1"/>
+      <c r="Q11" s="1"/>
+      <c r="R11" s="1"/>
+      <c r="S11" s="1"/>
+      <c r="T11" s="1"/>
+      <c r="U11" s="1"/>
+      <c r="V11" s="1"/>
+      <c r="W11" s="1"/>
+      <c r="X11" s="1"/>
+      <c r="Y11" s="1"/>
+      <c r="Z11" s="1"/>
+      <c r="AA11" s="1"/>
+      <c r="AB11" s="1"/>
+      <c r="AC11" s="1"/>
+      <c r="AD11" s="4"/>
+      <c r="AE11" s="4"/>
+      <c r="AF11" s="4"/>
+      <c r="AG11" s="4"/>
+      <c r="AH11" s="4"/>
+      <c r="AI11" s="4"/>
+      <c r="AJ11" s="4"/>
+      <c r="AK11" s="4"/>
+      <c r="AL11" s="4"/>
+      <c r="AN11" s="4"/>
+      <c r="AO11" s="4"/>
+      <c r="AP11" s="4"/>
+    </row>
+    <row r="12" spans="1:42" x14ac:dyDescent="0.4">
+      <c r="B12" s="1" t="str" cm="1">
+        <f t="array" aca="1" ref="B12" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A12,";",REPT(" ",LEN(A12)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A12)-LEN(SUBSTITUTE(A12,";",""))+1))*LEN(A12)+1,LEN(A12)+1)))</f>
+        <v/>
+      </c>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1"/>
+      <c r="I12" s="1"/>
+      <c r="J12" s="1"/>
+      <c r="K12" s="1"/>
+      <c r="L12" s="1"/>
+      <c r="M12" s="1"/>
+      <c r="N12" s="1"/>
+      <c r="O12" s="1"/>
+      <c r="P12" s="1"/>
+      <c r="Q12" s="1"/>
+      <c r="R12" s="1"/>
+      <c r="S12" s="1"/>
+      <c r="T12" s="1"/>
+      <c r="U12" s="1"/>
+      <c r="V12" s="1"/>
+      <c r="W12" s="1"/>
+      <c r="X12" s="1"/>
+      <c r="Y12" s="1"/>
+      <c r="Z12" s="1"/>
+      <c r="AA12" s="1"/>
+      <c r="AB12" s="1"/>
+      <c r="AC12" s="1"/>
+      <c r="AD12" s="4"/>
+      <c r="AE12" s="4"/>
+      <c r="AF12" s="4"/>
+      <c r="AG12" s="4"/>
+      <c r="AH12" s="4"/>
+      <c r="AI12" s="4"/>
+      <c r="AJ12" s="4"/>
+      <c r="AK12" s="4"/>
+      <c r="AL12" s="4"/>
+      <c r="AN12" s="4"/>
+      <c r="AO12" s="4"/>
+      <c r="AP12" s="4"/>
+    </row>
+    <row r="13" spans="1:42" x14ac:dyDescent="0.4">
+      <c r="B13" s="1" t="str" cm="1">
+        <f t="array" aca="1" ref="B13" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A13,";",REPT(" ",LEN(A13)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A13)-LEN(SUBSTITUTE(A13,";",""))+1))*LEN(A13)+1,LEN(A13)+1)))</f>
+        <v/>
+      </c>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1"/>
+      <c r="I13" s="1"/>
+      <c r="J13" s="1"/>
+      <c r="K13" s="1"/>
+      <c r="L13" s="1"/>
+      <c r="M13" s="1"/>
+      <c r="N13" s="1"/>
+      <c r="O13" s="1"/>
+      <c r="P13" s="1"/>
+      <c r="Q13" s="1"/>
+      <c r="R13" s="1"/>
+      <c r="S13" s="1"/>
+      <c r="T13" s="1"/>
+      <c r="U13" s="1"/>
+      <c r="V13" s="1"/>
+      <c r="W13" s="1"/>
+      <c r="X13" s="1"/>
+      <c r="Y13" s="1"/>
+      <c r="Z13" s="1"/>
+      <c r="AA13" s="1"/>
+      <c r="AB13" s="1"/>
+      <c r="AC13" s="1"/>
+      <c r="AD13" s="4"/>
+      <c r="AE13" s="4"/>
+      <c r="AF13" s="4"/>
+      <c r="AG13" s="4"/>
+      <c r="AH13" s="4"/>
+      <c r="AI13" s="4"/>
+      <c r="AJ13" s="4"/>
+      <c r="AK13" s="4"/>
+      <c r="AL13" s="4"/>
+      <c r="AN13" s="4"/>
+      <c r="AO13" s="4"/>
+      <c r="AP13" s="4"/>
+    </row>
+    <row r="14" spans="1:42" x14ac:dyDescent="0.4">
+      <c r="B14" s="1" t="str" cm="1">
+        <f t="array" aca="1" ref="B14" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A14,";",REPT(" ",LEN(A14)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A14)-LEN(SUBSTITUTE(A14,";",""))+1))*LEN(A14)+1,LEN(A14)+1)))</f>
+        <v/>
+      </c>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1"/>
+      <c r="I14" s="1"/>
+      <c r="J14" s="1"/>
+      <c r="K14" s="1"/>
+      <c r="L14" s="1"/>
+      <c r="M14" s="1"/>
+      <c r="N14" s="1"/>
+      <c r="O14" s="1"/>
+      <c r="P14" s="1"/>
+      <c r="Q14" s="1"/>
+      <c r="R14" s="1"/>
+      <c r="S14" s="1"/>
+      <c r="T14" s="1"/>
+      <c r="U14" s="1"/>
+      <c r="V14" s="1"/>
+      <c r="W14" s="1"/>
+      <c r="X14" s="1"/>
+      <c r="Y14" s="1"/>
+      <c r="Z14" s="1"/>
+      <c r="AA14" s="1"/>
+      <c r="AB14" s="1"/>
+      <c r="AC14" s="1"/>
+      <c r="AD14" s="4"/>
+      <c r="AE14" s="4"/>
+      <c r="AF14" s="4"/>
+      <c r="AG14" s="4"/>
+      <c r="AH14" s="4"/>
+      <c r="AI14" s="4"/>
+      <c r="AJ14" s="4"/>
+      <c r="AK14" s="4"/>
+      <c r="AL14" s="4"/>
+      <c r="AN14" s="4"/>
+      <c r="AO14" s="4"/>
+      <c r="AP14" s="4"/>
+    </row>
+    <row r="15" spans="1:42" x14ac:dyDescent="0.4">
+      <c r="B15" s="1" t="str" cm="1">
+        <f t="array" aca="1" ref="B15" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A15,";",REPT(" ",LEN(A15)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A15)-LEN(SUBSTITUTE(A15,";",""))+1))*LEN(A15)+1,LEN(A15)+1)))</f>
+        <v/>
+      </c>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1"/>
+      <c r="H15" s="1"/>
+      <c r="I15" s="1"/>
+      <c r="J15" s="1"/>
+      <c r="K15" s="1"/>
+      <c r="L15" s="1"/>
+      <c r="M15" s="1"/>
+      <c r="N15" s="1"/>
+      <c r="O15" s="1"/>
+      <c r="P15" s="1"/>
+      <c r="Q15" s="1"/>
+      <c r="R15" s="1"/>
+      <c r="S15" s="1"/>
+      <c r="T15" s="1"/>
+      <c r="U15" s="1"/>
+      <c r="V15" s="1"/>
+      <c r="W15" s="1"/>
+      <c r="X15" s="1"/>
+      <c r="Y15" s="1"/>
+      <c r="Z15" s="1"/>
+      <c r="AA15" s="1"/>
+      <c r="AB15" s="1"/>
+      <c r="AC15" s="1"/>
+      <c r="AD15" s="4"/>
+      <c r="AE15" s="4"/>
+      <c r="AF15" s="4"/>
+      <c r="AG15" s="4"/>
+      <c r="AH15" s="4"/>
+      <c r="AI15" s="4"/>
+      <c r="AJ15" s="4"/>
+      <c r="AK15" s="4"/>
+      <c r="AL15" s="4"/>
+      <c r="AN15" s="4"/>
+      <c r="AO15" s="4"/>
+      <c r="AP15" s="4"/>
+    </row>
+    <row r="16" spans="1:42" x14ac:dyDescent="0.4">
+      <c r="B16" s="1" t="str" cm="1">
+        <f t="array" aca="1" ref="B16" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A16,";",REPT(" ",LEN(A16)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A16)-LEN(SUBSTITUTE(A16,";",""))+1))*LEN(A16)+1,LEN(A16)+1)))</f>
+        <v/>
+      </c>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1"/>
+      <c r="H16" s="1"/>
+      <c r="I16" s="1"/>
+      <c r="J16" s="1"/>
+      <c r="K16" s="1"/>
+      <c r="L16" s="1"/>
+      <c r="M16" s="1"/>
+      <c r="N16" s="1"/>
+      <c r="O16" s="1"/>
+      <c r="P16" s="1"/>
+      <c r="Q16" s="1"/>
+      <c r="R16" s="1"/>
+      <c r="S16" s="1"/>
+      <c r="T16" s="1"/>
+      <c r="U16" s="1"/>
+      <c r="V16" s="1"/>
+      <c r="W16" s="1"/>
+      <c r="X16" s="1"/>
+      <c r="Y16" s="1"/>
+      <c r="Z16" s="1"/>
+      <c r="AA16" s="1"/>
+      <c r="AB16" s="1"/>
+      <c r="AC16" s="1"/>
+      <c r="AD16" s="4"/>
+      <c r="AE16" s="4"/>
+      <c r="AF16" s="4"/>
+      <c r="AG16" s="4"/>
+      <c r="AH16" s="4"/>
+      <c r="AI16" s="4"/>
+      <c r="AJ16" s="4"/>
+      <c r="AK16" s="4"/>
+      <c r="AL16" s="4"/>
+      <c r="AN16" s="4"/>
+      <c r="AO16" s="4"/>
+      <c r="AP16" s="4"/>
+    </row>
+    <row r="17" spans="2:42" x14ac:dyDescent="0.4">
+      <c r="B17" s="1" t="str" cm="1">
+        <f t="array" aca="1" ref="B17" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A17,";",REPT(" ",LEN(A17)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A17)-LEN(SUBSTITUTE(A17,";",""))+1))*LEN(A17)+1,LEN(A17)+1)))</f>
+        <v/>
+      </c>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1"/>
+      <c r="G17" s="1"/>
+      <c r="H17" s="1"/>
+      <c r="I17" s="1"/>
+      <c r="J17" s="1"/>
+      <c r="K17" s="1"/>
+      <c r="L17" s="1"/>
+      <c r="M17" s="1"/>
+      <c r="N17" s="1"/>
+      <c r="O17" s="1"/>
+      <c r="P17" s="1"/>
+      <c r="Q17" s="1"/>
+      <c r="R17" s="1"/>
+      <c r="S17" s="1"/>
+      <c r="T17" s="1"/>
+      <c r="U17" s="1"/>
+      <c r="V17" s="1"/>
+      <c r="W17" s="1"/>
+      <c r="X17" s="1"/>
+      <c r="Y17" s="1"/>
+      <c r="Z17" s="1"/>
+      <c r="AA17" s="1"/>
+      <c r="AB17" s="1"/>
+      <c r="AC17" s="1"/>
+      <c r="AD17" s="4"/>
+      <c r="AE17" s="4"/>
+      <c r="AF17" s="4"/>
+      <c r="AG17" s="4"/>
+      <c r="AH17" s="4"/>
+      <c r="AI17" s="4"/>
+      <c r="AJ17" s="4"/>
+      <c r="AK17" s="4"/>
+      <c r="AL17" s="4"/>
+      <c r="AN17" s="4"/>
+      <c r="AO17" s="4"/>
+      <c r="AP17" s="4"/>
+    </row>
+    <row r="18" spans="2:42" x14ac:dyDescent="0.4">
+      <c r="B18" s="1" t="str" cm="1">
+        <f t="array" aca="1" ref="B18" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A18,";",REPT(" ",LEN(A18)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A18)-LEN(SUBSTITUTE(A18,";",""))+1))*LEN(A18)+1,LEN(A18)+1)))</f>
+        <v/>
+      </c>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
+      <c r="G18" s="1"/>
+      <c r="H18" s="1"/>
+      <c r="I18" s="1"/>
+      <c r="J18" s="1"/>
+      <c r="K18" s="1"/>
+      <c r="L18" s="1"/>
+      <c r="M18" s="1"/>
+      <c r="N18" s="1"/>
+      <c r="O18" s="1"/>
+      <c r="P18" s="1"/>
+      <c r="Q18" s="1"/>
+      <c r="R18" s="1"/>
+      <c r="S18" s="1"/>
+      <c r="T18" s="1"/>
+      <c r="U18" s="1"/>
+      <c r="V18" s="1"/>
+      <c r="W18" s="1"/>
+      <c r="X18" s="1"/>
+      <c r="Y18" s="1"/>
+      <c r="Z18" s="1"/>
+      <c r="AA18" s="1"/>
+      <c r="AB18" s="1"/>
+      <c r="AC18" s="1"/>
+      <c r="AD18" s="4"/>
+      <c r="AE18" s="4"/>
+      <c r="AF18" s="4"/>
+      <c r="AG18" s="4"/>
+      <c r="AH18" s="4"/>
+      <c r="AI18" s="4"/>
+      <c r="AJ18" s="4"/>
+      <c r="AK18" s="4"/>
+      <c r="AL18" s="4"/>
+      <c r="AN18" s="4"/>
+      <c r="AO18" s="4"/>
+      <c r="AP18" s="4"/>
+    </row>
+    <row r="19" spans="2:42" x14ac:dyDescent="0.4">
+      <c r="B19" s="1" t="str" cm="1">
+        <f t="array" aca="1" ref="B19" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A19,";",REPT(" ",LEN(A19)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A19)-LEN(SUBSTITUTE(A19,";",""))+1))*LEN(A19)+1,LEN(A19)+1)))</f>
+        <v/>
+      </c>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1"/>
+      <c r="E19" s="1"/>
+      <c r="F19" s="1"/>
+      <c r="G19" s="1"/>
+      <c r="H19" s="1"/>
+      <c r="I19" s="1"/>
+      <c r="J19" s="1"/>
+      <c r="K19" s="1"/>
+      <c r="L19" s="1"/>
+      <c r="M19" s="1"/>
+      <c r="N19" s="1"/>
+      <c r="O19" s="1"/>
+      <c r="P19" s="1"/>
+      <c r="Q19" s="1"/>
+      <c r="R19" s="1"/>
+      <c r="S19" s="1"/>
+      <c r="T19" s="1"/>
+      <c r="U19" s="1"/>
+      <c r="V19" s="1"/>
+      <c r="W19" s="1"/>
+      <c r="X19" s="1"/>
+      <c r="Y19" s="1"/>
+      <c r="Z19" s="1"/>
+      <c r="AA19" s="1"/>
+      <c r="AB19" s="1"/>
+      <c r="AC19" s="1"/>
+      <c r="AD19" s="4"/>
+      <c r="AE19" s="4"/>
+      <c r="AF19" s="4"/>
+      <c r="AG19" s="4"/>
+      <c r="AH19" s="4"/>
+      <c r="AI19" s="4"/>
+      <c r="AJ19" s="4"/>
+      <c r="AK19" s="4"/>
+      <c r="AL19" s="4"/>
+      <c r="AN19" s="4"/>
+      <c r="AO19" s="4"/>
+      <c r="AP19" s="4"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1048276-8A82-4E9E-96B8-21ABC897CB97}">
+  <dimension ref="A1:AP19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="20.69921875" customWidth="1"/>
+    <col min="2" max="29" width="10.69921875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:42" x14ac:dyDescent="0.4">
+      <c r="A1" t="str">
+        <f>Insert!A1</f>
+        <v>Insert decoded qr code</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="R1" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="S1" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="T1" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="U1" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="V1" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="W1" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="X1" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y1" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="Z1" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="AA1" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="AB1" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="AC1" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="AD1" s="3"/>
+      <c r="AE1" s="3"/>
+      <c r="AF1" s="3"/>
+      <c r="AG1" s="3"/>
+      <c r="AH1" s="3"/>
+      <c r="AI1" s="3"/>
+      <c r="AJ1" s="3"/>
+      <c r="AK1" s="3"/>
+      <c r="AL1" s="3"/>
+      <c r="AM1" s="3"/>
+      <c r="AN1" s="3"/>
+      <c r="AO1" s="3"/>
+      <c r="AP1" s="3"/>
+    </row>
+    <row r="2" spans="1:42" x14ac:dyDescent="0.4">
+      <c r="A2">
+        <f>Insert!A2</f>
+        <v>0</v>
+      </c>
+      <c r="B2" s="1" t="e" cm="1">
+        <f t="array" aca="1" ref="B2" ca="1">RIGHT(_xlfn.ANCHORARRAY(Insert!B2), LEN(_xlfn.ANCHORARRAY(Insert!B2)) - FIND("=",_xlfn.ANCHORARRAY( Insert!B2)))</f>
+        <v>#VALUE!</v>
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
@@ -761,9 +1699,13 @@
       <c r="AP2" s="4"/>
     </row>
     <row r="3" spans="1:42" x14ac:dyDescent="0.4">
-      <c r="B3" s="1" t="str" cm="1">
-        <f t="array" aca="1" ref="B3" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A3,";",REPT(" ",LEN(A3)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A3)-LEN(SUBSTITUTE(A3,";",""))+1))*LEN(A3)+1,LEN(A3)+1)))</f>
-        <v/>
+      <c r="A3">
+        <f>Insert!A3</f>
+        <v>0</v>
+      </c>
+      <c r="B3" s="1" t="e" cm="1">
+        <f t="array" aca="1" ref="B3" ca="1">RIGHT(_xlfn.ANCHORARRAY(Insert!B3), LEN(_xlfn.ANCHORARRAY(Insert!B3)) - FIND("=",_xlfn.ANCHORARRAY( Insert!B3)))</f>
+        <v>#VALUE!</v>
       </c>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
@@ -807,9 +1749,13 @@
       <c r="AP3" s="4"/>
     </row>
     <row r="4" spans="1:42" x14ac:dyDescent="0.4">
-      <c r="B4" s="1" t="str" cm="1">
-        <f t="array" aca="1" ref="B4" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A4,";",REPT(" ",LEN(A4)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A4)-LEN(SUBSTITUTE(A4,";",""))+1))*LEN(A4)+1,LEN(A4)+1)))</f>
-        <v/>
+      <c r="A4">
+        <f>Insert!A4</f>
+        <v>0</v>
+      </c>
+      <c r="B4" s="1" t="e" cm="1">
+        <f t="array" aca="1" ref="B4" ca="1">RIGHT(_xlfn.ANCHORARRAY(Insert!B4), LEN(_xlfn.ANCHORARRAY(Insert!B4)) - FIND("=",_xlfn.ANCHORARRAY( Insert!B4)))</f>
+        <v>#VALUE!</v>
       </c>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -853,9 +1799,13 @@
       <c r="AP4" s="4"/>
     </row>
     <row r="5" spans="1:42" x14ac:dyDescent="0.4">
-      <c r="B5" s="1" t="str" cm="1">
-        <f t="array" aca="1" ref="B5" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A5,";",REPT(" ",LEN(A5)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A5)-LEN(SUBSTITUTE(A5,";",""))+1))*LEN(A5)+1,LEN(A5)+1)))</f>
-        <v/>
+      <c r="A5">
+        <f>Insert!A5</f>
+        <v>0</v>
+      </c>
+      <c r="B5" s="1" t="e" cm="1">
+        <f t="array" aca="1" ref="B5" ca="1">RIGHT(_xlfn.ANCHORARRAY(Insert!B5), LEN(_xlfn.ANCHORARRAY(Insert!B5)) - FIND("=",_xlfn.ANCHORARRAY( Insert!B5)))</f>
+        <v>#VALUE!</v>
       </c>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
@@ -899,9 +1849,13 @@
       <c r="AP5" s="4"/>
     </row>
     <row r="6" spans="1:42" x14ac:dyDescent="0.4">
-      <c r="B6" s="1" t="str" cm="1">
-        <f t="array" aca="1" ref="B6" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A6,";",REPT(" ",LEN(A6)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A6)-LEN(SUBSTITUTE(A6,";",""))+1))*LEN(A6)+1,LEN(A6)+1)))</f>
-        <v/>
+      <c r="A6">
+        <f>Insert!A6</f>
+        <v>0</v>
+      </c>
+      <c r="B6" s="1" t="e" cm="1">
+        <f t="array" aca="1" ref="B6" ca="1">RIGHT(_xlfn.ANCHORARRAY(Insert!B6), LEN(_xlfn.ANCHORARRAY(Insert!B6)) - FIND("=",_xlfn.ANCHORARRAY( Insert!B6)))</f>
+        <v>#VALUE!</v>
       </c>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
@@ -945,9 +1899,13 @@
       <c r="AP6" s="4"/>
     </row>
     <row r="7" spans="1:42" x14ac:dyDescent="0.4">
-      <c r="B7" s="1" t="str" cm="1">
-        <f t="array" aca="1" ref="B7" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A7,";",REPT(" ",LEN(A7)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A7)-LEN(SUBSTITUTE(A7,";",""))+1))*LEN(A7)+1,LEN(A7)+1)))</f>
-        <v/>
+      <c r="A7">
+        <f>Insert!A7</f>
+        <v>0</v>
+      </c>
+      <c r="B7" s="1" t="e" cm="1">
+        <f t="array" aca="1" ref="B7" ca="1">RIGHT(_xlfn.ANCHORARRAY(Insert!B7), LEN(_xlfn.ANCHORARRAY(Insert!B7)) - FIND("=",_xlfn.ANCHORARRAY( Insert!B7)))</f>
+        <v>#VALUE!</v>
       </c>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -991,9 +1949,13 @@
       <c r="AP7" s="4"/>
     </row>
     <row r="8" spans="1:42" x14ac:dyDescent="0.4">
-      <c r="B8" s="1" t="str" cm="1">
-        <f t="array" aca="1" ref="B8" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A8,";",REPT(" ",LEN(A8)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A8)-LEN(SUBSTITUTE(A8,";",""))+1))*LEN(A8)+1,LEN(A8)+1)))</f>
-        <v/>
+      <c r="A8">
+        <f>Insert!A8</f>
+        <v>0</v>
+      </c>
+      <c r="B8" s="1" t="e" cm="1">
+        <f t="array" aca="1" ref="B8" ca="1">RIGHT(_xlfn.ANCHORARRAY(Insert!B8), LEN(_xlfn.ANCHORARRAY(Insert!B8)) - FIND("=",_xlfn.ANCHORARRAY( Insert!B8)))</f>
+        <v>#VALUE!</v>
       </c>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
@@ -1037,9 +1999,13 @@
       <c r="AP8" s="4"/>
     </row>
     <row r="9" spans="1:42" x14ac:dyDescent="0.4">
-      <c r="B9" s="1" t="str" cm="1">
-        <f t="array" aca="1" ref="B9" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A9,";",REPT(" ",LEN(A9)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A9)-LEN(SUBSTITUTE(A9,";",""))+1))*LEN(A9)+1,LEN(A9)+1)))</f>
-        <v/>
+      <c r="A9">
+        <f>Insert!A9</f>
+        <v>0</v>
+      </c>
+      <c r="B9" s="1" t="e" cm="1">
+        <f t="array" aca="1" ref="B9" ca="1">RIGHT(_xlfn.ANCHORARRAY(Insert!B9), LEN(_xlfn.ANCHORARRAY(Insert!B9)) - FIND("=",_xlfn.ANCHORARRAY( Insert!B9)))</f>
+        <v>#VALUE!</v>
       </c>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -1083,9 +2049,13 @@
       <c r="AP9" s="4"/>
     </row>
     <row r="10" spans="1:42" x14ac:dyDescent="0.4">
-      <c r="B10" s="1" t="str" cm="1">
-        <f t="array" aca="1" ref="B10" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A10,";",REPT(" ",LEN(A10)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A10)-LEN(SUBSTITUTE(A10,";",""))+1))*LEN(A10)+1,LEN(A10)+1)))</f>
-        <v/>
+      <c r="A10">
+        <f>Insert!A10</f>
+        <v>0</v>
+      </c>
+      <c r="B10" s="1" t="e" cm="1">
+        <f t="array" aca="1" ref="B10" ca="1">RIGHT(_xlfn.ANCHORARRAY(Insert!B10), LEN(_xlfn.ANCHORARRAY(Insert!B10)) - FIND("=",_xlfn.ANCHORARRAY( Insert!B10)))</f>
+        <v>#VALUE!</v>
       </c>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
@@ -1129,9 +2099,13 @@
       <c r="AP10" s="4"/>
     </row>
     <row r="11" spans="1:42" x14ac:dyDescent="0.4">
-      <c r="B11" s="1" t="str" cm="1">
-        <f t="array" aca="1" ref="B11" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A11,";",REPT(" ",LEN(A11)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A11)-LEN(SUBSTITUTE(A11,";",""))+1))*LEN(A11)+1,LEN(A11)+1)))</f>
-        <v/>
+      <c r="A11">
+        <f>Insert!A11</f>
+        <v>0</v>
+      </c>
+      <c r="B11" s="1" t="e" cm="1">
+        <f t="array" aca="1" ref="B11" ca="1">RIGHT(_xlfn.ANCHORARRAY(Insert!B11), LEN(_xlfn.ANCHORARRAY(Insert!B11)) - FIND("=",_xlfn.ANCHORARRAY( Insert!B11)))</f>
+        <v>#VALUE!</v>
       </c>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
@@ -1175,9 +2149,13 @@
       <c r="AP11" s="4"/>
     </row>
     <row r="12" spans="1:42" x14ac:dyDescent="0.4">
-      <c r="B12" s="1" t="str" cm="1">
-        <f t="array" aca="1" ref="B12" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A12,";",REPT(" ",LEN(A12)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A12)-LEN(SUBSTITUTE(A12,";",""))+1))*LEN(A12)+1,LEN(A12)+1)))</f>
-        <v/>
+      <c r="A12">
+        <f>Insert!A12</f>
+        <v>0</v>
+      </c>
+      <c r="B12" s="1" t="e" cm="1">
+        <f t="array" aca="1" ref="B12" ca="1">RIGHT(_xlfn.ANCHORARRAY(Insert!B12), LEN(_xlfn.ANCHORARRAY(Insert!B12)) - FIND("=",_xlfn.ANCHORARRAY( Insert!B12)))</f>
+        <v>#VALUE!</v>
       </c>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
@@ -1221,9 +2199,13 @@
       <c r="AP12" s="4"/>
     </row>
     <row r="13" spans="1:42" x14ac:dyDescent="0.4">
-      <c r="B13" s="1" t="str" cm="1">
-        <f t="array" aca="1" ref="B13" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A13,";",REPT(" ",LEN(A13)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A13)-LEN(SUBSTITUTE(A13,";",""))+1))*LEN(A13)+1,LEN(A13)+1)))</f>
-        <v/>
+      <c r="A13">
+        <f>Insert!A13</f>
+        <v>0</v>
+      </c>
+      <c r="B13" s="1" t="e" cm="1">
+        <f t="array" aca="1" ref="B13" ca="1">RIGHT(_xlfn.ANCHORARRAY(Insert!B13), LEN(_xlfn.ANCHORARRAY(Insert!B13)) - FIND("=",_xlfn.ANCHORARRAY( Insert!B13)))</f>
+        <v>#VALUE!</v>
       </c>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
@@ -1267,9 +2249,13 @@
       <c r="AP13" s="4"/>
     </row>
     <row r="14" spans="1:42" x14ac:dyDescent="0.4">
-      <c r="B14" s="1" t="str" cm="1">
-        <f t="array" aca="1" ref="B14" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A14,";",REPT(" ",LEN(A14)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A14)-LEN(SUBSTITUTE(A14,";",""))+1))*LEN(A14)+1,LEN(A14)+1)))</f>
-        <v/>
+      <c r="A14">
+        <f>Insert!A14</f>
+        <v>0</v>
+      </c>
+      <c r="B14" s="1" t="e" cm="1">
+        <f t="array" aca="1" ref="B14" ca="1">RIGHT(_xlfn.ANCHORARRAY(Insert!B14), LEN(_xlfn.ANCHORARRAY(Insert!B14)) - FIND("=",_xlfn.ANCHORARRAY( Insert!B14)))</f>
+        <v>#VALUE!</v>
       </c>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
@@ -1313,9 +2299,13 @@
       <c r="AP14" s="4"/>
     </row>
     <row r="15" spans="1:42" x14ac:dyDescent="0.4">
-      <c r="B15" s="1" t="str" cm="1">
-        <f t="array" aca="1" ref="B15" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A15,";",REPT(" ",LEN(A15)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A15)-LEN(SUBSTITUTE(A15,";",""))+1))*LEN(A15)+1,LEN(A15)+1)))</f>
-        <v/>
+      <c r="A15">
+        <f>Insert!A15</f>
+        <v>0</v>
+      </c>
+      <c r="B15" s="1" t="e" cm="1">
+        <f t="array" aca="1" ref="B15" ca="1">RIGHT(_xlfn.ANCHORARRAY(Insert!B15), LEN(_xlfn.ANCHORARRAY(Insert!B15)) - FIND("=",_xlfn.ANCHORARRAY( Insert!B15)))</f>
+        <v>#VALUE!</v>
       </c>
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
@@ -1359,9 +2349,13 @@
       <c r="AP15" s="4"/>
     </row>
     <row r="16" spans="1:42" x14ac:dyDescent="0.4">
-      <c r="B16" s="1" t="str" cm="1">
-        <f t="array" aca="1" ref="B16" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A16,";",REPT(" ",LEN(A16)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A16)-LEN(SUBSTITUTE(A16,";",""))+1))*LEN(A16)+1,LEN(A16)+1)))</f>
-        <v/>
+      <c r="A16">
+        <f>Insert!A16</f>
+        <v>0</v>
+      </c>
+      <c r="B16" s="1" t="e" cm="1">
+        <f t="array" aca="1" ref="B16" ca="1">RIGHT(_xlfn.ANCHORARRAY(Insert!B16), LEN(_xlfn.ANCHORARRAY(Insert!B16)) - FIND("=",_xlfn.ANCHORARRAY( Insert!B16)))</f>
+        <v>#VALUE!</v>
       </c>
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
@@ -1404,10 +2398,14 @@
       <c r="AO16" s="4"/>
       <c r="AP16" s="4"/>
     </row>
-    <row r="17" spans="2:42" x14ac:dyDescent="0.4">
-      <c r="B17" s="1" t="str" cm="1">
-        <f t="array" aca="1" ref="B17" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A17,";",REPT(" ",LEN(A17)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A17)-LEN(SUBSTITUTE(A17,";",""))+1))*LEN(A17)+1,LEN(A17)+1)))</f>
-        <v/>
+    <row r="17" spans="1:42" x14ac:dyDescent="0.4">
+      <c r="A17">
+        <f>Insert!A17</f>
+        <v>0</v>
+      </c>
+      <c r="B17" s="1" t="e" cm="1">
+        <f t="array" aca="1" ref="B17" ca="1">RIGHT(_xlfn.ANCHORARRAY(Insert!B17), LEN(_xlfn.ANCHORARRAY(Insert!B17)) - FIND("=",_xlfn.ANCHORARRAY( Insert!B17)))</f>
+        <v>#VALUE!</v>
       </c>
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
@@ -1450,10 +2448,14 @@
       <c r="AO17" s="4"/>
       <c r="AP17" s="4"/>
     </row>
-    <row r="18" spans="2:42" x14ac:dyDescent="0.4">
-      <c r="B18" s="1" t="str" cm="1">
-        <f t="array" aca="1" ref="B18" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A18,";",REPT(" ",LEN(A18)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A18)-LEN(SUBSTITUTE(A18,";",""))+1))*LEN(A18)+1,LEN(A18)+1)))</f>
-        <v/>
+    <row r="18" spans="1:42" x14ac:dyDescent="0.4">
+      <c r="A18">
+        <f>Insert!A18</f>
+        <v>0</v>
+      </c>
+      <c r="B18" s="1" t="e" cm="1">
+        <f t="array" aca="1" ref="B18" ca="1">RIGHT(_xlfn.ANCHORARRAY(Insert!B18), LEN(_xlfn.ANCHORARRAY(Insert!B18)) - FIND("=",_xlfn.ANCHORARRAY( Insert!B18)))</f>
+        <v>#VALUE!</v>
       </c>
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
@@ -1496,10 +2498,14 @@
       <c r="AO18" s="4"/>
       <c r="AP18" s="4"/>
     </row>
-    <row r="19" spans="2:42" x14ac:dyDescent="0.4">
-      <c r="B19" s="1" t="str" cm="1">
-        <f t="array" aca="1" ref="B19" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A19,";",REPT(" ",LEN(A19)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A19)-LEN(SUBSTITUTE(A19,";",""))+1))*LEN(A19)+1,LEN(A19)+1)))</f>
-        <v/>
+    <row r="19" spans="1:42" x14ac:dyDescent="0.4">
+      <c r="A19">
+        <f>Insert!A19</f>
+        <v>0</v>
+      </c>
+      <c r="B19" s="1" t="e" cm="1">
+        <f t="array" aca="1" ref="B19" ca="1">RIGHT(_xlfn.ANCHORARRAY(Insert!B19), LEN(_xlfn.ANCHORARRAY(Insert!B19)) - FIND("=",_xlfn.ANCHORARRAY( Insert!B19)))</f>
+        <v>#VALUE!</v>
       </c>
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
@@ -1547,1028 +2553,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1048276-8A82-4E9E-96B8-21ABC897CB97}">
-  <dimension ref="A1:AP19"/>
-  <sheetViews>
-    <sheetView topLeftCell="O1" workbookViewId="0">
-      <selection activeCell="I1" sqref="I1:I1048576"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
-  <cols>
-    <col min="1" max="1" width="20.69921875" customWidth="1"/>
-    <col min="2" max="29" width="10.69921875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:42" x14ac:dyDescent="0.4">
-      <c r="A1" t="str">
-        <f>Insert!A1</f>
-        <v>Insert decoded qr code</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="L1" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="M1" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="N1" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="O1" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="P1" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q1" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="R1" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="S1" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="T1" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="U1" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="V1" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="W1" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="X1" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="Y1" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="Z1" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="AA1" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="AB1" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="AC1" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="AD1" s="3"/>
-      <c r="AE1" s="3"/>
-      <c r="AF1" s="3"/>
-      <c r="AG1" s="3"/>
-      <c r="AH1" s="3"/>
-      <c r="AI1" s="3"/>
-      <c r="AJ1" s="3"/>
-      <c r="AK1" s="3"/>
-      <c r="AL1" s="3"/>
-      <c r="AM1" s="3"/>
-      <c r="AN1" s="3"/>
-      <c r="AO1" s="3"/>
-      <c r="AP1" s="3"/>
-    </row>
-    <row r="2" spans="1:42" x14ac:dyDescent="0.4">
-      <c r="A2">
-        <f>Insert!A2</f>
-        <v>0</v>
-      </c>
-      <c r="B2" s="1" t="e" cm="1">
-        <f t="array" aca="1" ref="B2" ca="1">RIGHT(_xlfn.ANCHORARRAY(Insert!B2), LEN(_xlfn.ANCHORARRAY(Insert!B2)) - FIND("=",_xlfn.ANCHORARRAY( Insert!B2)))</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
-      <c r="I2" s="1"/>
-      <c r="J2" s="1"/>
-      <c r="K2" s="1"/>
-      <c r="L2" s="1"/>
-      <c r="M2" s="1"/>
-      <c r="N2" s="1"/>
-      <c r="O2" s="1"/>
-      <c r="P2" s="1"/>
-      <c r="Q2" s="1"/>
-      <c r="R2" s="1"/>
-      <c r="S2" s="1"/>
-      <c r="T2" s="1"/>
-      <c r="U2" s="1"/>
-      <c r="V2" s="1"/>
-      <c r="W2" s="1"/>
-      <c r="X2" s="1"/>
-      <c r="Y2" s="1"/>
-      <c r="Z2" s="1"/>
-      <c r="AA2" s="1"/>
-      <c r="AB2" s="1"/>
-      <c r="AC2" s="1"/>
-      <c r="AD2" s="4"/>
-      <c r="AE2" s="4"/>
-      <c r="AF2" s="4"/>
-      <c r="AG2" s="4"/>
-      <c r="AH2" s="4"/>
-      <c r="AI2" s="4"/>
-      <c r="AJ2" s="4"/>
-      <c r="AK2" s="4"/>
-      <c r="AL2" s="4"/>
-      <c r="AM2" s="4"/>
-      <c r="AN2" s="4"/>
-      <c r="AO2" s="4"/>
-      <c r="AP2" s="4"/>
-    </row>
-    <row r="3" spans="1:42" x14ac:dyDescent="0.4">
-      <c r="A3">
-        <f>Insert!A3</f>
-        <v>0</v>
-      </c>
-      <c r="B3" s="1" t="e" cm="1">
-        <f t="array" aca="1" ref="B3" ca="1">RIGHT(_xlfn.ANCHORARRAY(Insert!B3), LEN(_xlfn.ANCHORARRAY(Insert!B3)) - FIND("=",_xlfn.ANCHORARRAY( Insert!B3)))</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1"/>
-      <c r="I3" s="1"/>
-      <c r="J3" s="1"/>
-      <c r="K3" s="1"/>
-      <c r="L3" s="1"/>
-      <c r="M3" s="1"/>
-      <c r="N3" s="1"/>
-      <c r="O3" s="1"/>
-      <c r="P3" s="1"/>
-      <c r="Q3" s="1"/>
-      <c r="R3" s="1"/>
-      <c r="S3" s="1"/>
-      <c r="T3" s="1"/>
-      <c r="U3" s="1"/>
-      <c r="V3" s="1"/>
-      <c r="W3" s="1"/>
-      <c r="X3" s="1"/>
-      <c r="Y3" s="1"/>
-      <c r="Z3" s="1"/>
-      <c r="AA3" s="1"/>
-      <c r="AB3" s="1"/>
-      <c r="AC3" s="1"/>
-      <c r="AD3" s="4"/>
-      <c r="AE3" s="4"/>
-      <c r="AF3" s="4"/>
-      <c r="AG3" s="4"/>
-      <c r="AH3" s="4"/>
-      <c r="AI3" s="4"/>
-      <c r="AJ3" s="4"/>
-      <c r="AK3" s="4"/>
-      <c r="AL3" s="4"/>
-      <c r="AM3" s="4"/>
-      <c r="AN3" s="4"/>
-      <c r="AO3" s="4"/>
-      <c r="AP3" s="4"/>
-    </row>
-    <row r="4" spans="1:42" x14ac:dyDescent="0.4">
-      <c r="A4">
-        <f>Insert!A4</f>
-        <v>0</v>
-      </c>
-      <c r="B4" s="1" t="e" cm="1">
-        <f t="array" aca="1" ref="B4" ca="1">RIGHT(_xlfn.ANCHORARRAY(Insert!B4), LEN(_xlfn.ANCHORARRAY(Insert!B4)) - FIND("=",_xlfn.ANCHORARRAY( Insert!B4)))</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
-      <c r="H4" s="1"/>
-      <c r="I4" s="1"/>
-      <c r="J4" s="1"/>
-      <c r="K4" s="1"/>
-      <c r="L4" s="1"/>
-      <c r="M4" s="1"/>
-      <c r="N4" s="1"/>
-      <c r="O4" s="1"/>
-      <c r="P4" s="1"/>
-      <c r="Q4" s="1"/>
-      <c r="R4" s="1"/>
-      <c r="S4" s="1"/>
-      <c r="T4" s="1"/>
-      <c r="U4" s="1"/>
-      <c r="V4" s="1"/>
-      <c r="W4" s="1"/>
-      <c r="X4" s="1"/>
-      <c r="Y4" s="1"/>
-      <c r="Z4" s="1"/>
-      <c r="AA4" s="1"/>
-      <c r="AB4" s="1"/>
-      <c r="AC4" s="1"/>
-      <c r="AD4" s="4"/>
-      <c r="AE4" s="4"/>
-      <c r="AF4" s="4"/>
-      <c r="AG4" s="4"/>
-      <c r="AH4" s="4"/>
-      <c r="AI4" s="4"/>
-      <c r="AJ4" s="4"/>
-      <c r="AK4" s="4"/>
-      <c r="AL4" s="4"/>
-      <c r="AM4" s="4"/>
-      <c r="AN4" s="4"/>
-      <c r="AO4" s="4"/>
-      <c r="AP4" s="4"/>
-    </row>
-    <row r="5" spans="1:42" x14ac:dyDescent="0.4">
-      <c r="A5">
-        <f>Insert!A5</f>
-        <v>0</v>
-      </c>
-      <c r="B5" s="1" t="e" cm="1">
-        <f t="array" aca="1" ref="B5" ca="1">RIGHT(_xlfn.ANCHORARRAY(Insert!B5), LEN(_xlfn.ANCHORARRAY(Insert!B5)) - FIND("=",_xlfn.ANCHORARRAY( Insert!B5)))</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
-      <c r="I5" s="1"/>
-      <c r="J5" s="1"/>
-      <c r="K5" s="1"/>
-      <c r="L5" s="1"/>
-      <c r="M5" s="1"/>
-      <c r="N5" s="1"/>
-      <c r="O5" s="1"/>
-      <c r="P5" s="1"/>
-      <c r="Q5" s="1"/>
-      <c r="R5" s="1"/>
-      <c r="S5" s="1"/>
-      <c r="T5" s="1"/>
-      <c r="U5" s="1"/>
-      <c r="V5" s="1"/>
-      <c r="W5" s="1"/>
-      <c r="X5" s="1"/>
-      <c r="Y5" s="1"/>
-      <c r="Z5" s="1"/>
-      <c r="AA5" s="1"/>
-      <c r="AB5" s="1"/>
-      <c r="AC5" s="1"/>
-      <c r="AD5" s="4"/>
-      <c r="AE5" s="4"/>
-      <c r="AF5" s="4"/>
-      <c r="AG5" s="4"/>
-      <c r="AH5" s="4"/>
-      <c r="AI5" s="4"/>
-      <c r="AJ5" s="4"/>
-      <c r="AK5" s="4"/>
-      <c r="AL5" s="4"/>
-      <c r="AM5" s="4"/>
-      <c r="AN5" s="4"/>
-      <c r="AO5" s="4"/>
-      <c r="AP5" s="4"/>
-    </row>
-    <row r="6" spans="1:42" x14ac:dyDescent="0.4">
-      <c r="A6">
-        <f>Insert!A6</f>
-        <v>0</v>
-      </c>
-      <c r="B6" s="1" t="e" cm="1">
-        <f t="array" aca="1" ref="B6" ca="1">RIGHT(_xlfn.ANCHORARRAY(Insert!B6), LEN(_xlfn.ANCHORARRAY(Insert!B6)) - FIND("=",_xlfn.ANCHORARRAY( Insert!B6)))</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
-      <c r="H6" s="1"/>
-      <c r="I6" s="1"/>
-      <c r="J6" s="1"/>
-      <c r="K6" s="1"/>
-      <c r="L6" s="1"/>
-      <c r="M6" s="1"/>
-      <c r="N6" s="1"/>
-      <c r="O6" s="1"/>
-      <c r="P6" s="1"/>
-      <c r="Q6" s="1"/>
-      <c r="R6" s="1"/>
-      <c r="S6" s="1"/>
-      <c r="T6" s="1"/>
-      <c r="U6" s="1"/>
-      <c r="V6" s="1"/>
-      <c r="W6" s="1"/>
-      <c r="X6" s="1"/>
-      <c r="Y6" s="1"/>
-      <c r="Z6" s="1"/>
-      <c r="AA6" s="1"/>
-      <c r="AB6" s="1"/>
-      <c r="AC6" s="1"/>
-      <c r="AD6" s="4"/>
-      <c r="AE6" s="4"/>
-      <c r="AF6" s="4"/>
-      <c r="AG6" s="4"/>
-      <c r="AH6" s="4"/>
-      <c r="AI6" s="4"/>
-      <c r="AJ6" s="4"/>
-      <c r="AK6" s="4"/>
-      <c r="AL6" s="4"/>
-      <c r="AM6" s="4"/>
-      <c r="AN6" s="4"/>
-      <c r="AO6" s="4"/>
-      <c r="AP6" s="4"/>
-    </row>
-    <row r="7" spans="1:42" x14ac:dyDescent="0.4">
-      <c r="A7">
-        <f>Insert!A7</f>
-        <v>0</v>
-      </c>
-      <c r="B7" s="1" t="e" cm="1">
-        <f t="array" aca="1" ref="B7" ca="1">RIGHT(_xlfn.ANCHORARRAY(Insert!B7), LEN(_xlfn.ANCHORARRAY(Insert!B7)) - FIND("=",_xlfn.ANCHORARRAY( Insert!B7)))</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
-      <c r="H7" s="1"/>
-      <c r="I7" s="1"/>
-      <c r="J7" s="1"/>
-      <c r="K7" s="1"/>
-      <c r="L7" s="1"/>
-      <c r="M7" s="1"/>
-      <c r="N7" s="1"/>
-      <c r="O7" s="1"/>
-      <c r="P7" s="1"/>
-      <c r="Q7" s="1"/>
-      <c r="R7" s="1"/>
-      <c r="S7" s="1"/>
-      <c r="T7" s="1"/>
-      <c r="U7" s="1"/>
-      <c r="V7" s="1"/>
-      <c r="W7" s="1"/>
-      <c r="X7" s="1"/>
-      <c r="Y7" s="1"/>
-      <c r="Z7" s="1"/>
-      <c r="AA7" s="1"/>
-      <c r="AB7" s="1"/>
-      <c r="AC7" s="1"/>
-      <c r="AD7" s="4"/>
-      <c r="AE7" s="4"/>
-      <c r="AF7" s="4"/>
-      <c r="AG7" s="4"/>
-      <c r="AH7" s="4"/>
-      <c r="AI7" s="4"/>
-      <c r="AJ7" s="4"/>
-      <c r="AK7" s="4"/>
-      <c r="AL7" s="4"/>
-      <c r="AM7" s="4"/>
-      <c r="AN7" s="4"/>
-      <c r="AO7" s="4"/>
-      <c r="AP7" s="4"/>
-    </row>
-    <row r="8" spans="1:42" x14ac:dyDescent="0.4">
-      <c r="A8">
-        <f>Insert!A8</f>
-        <v>0</v>
-      </c>
-      <c r="B8" s="1" t="e" cm="1">
-        <f t="array" aca="1" ref="B8" ca="1">RIGHT(_xlfn.ANCHORARRAY(Insert!B8), LEN(_xlfn.ANCHORARRAY(Insert!B8)) - FIND("=",_xlfn.ANCHORARRAY( Insert!B8)))</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
-      <c r="G8" s="1"/>
-      <c r="H8" s="1"/>
-      <c r="I8" s="1"/>
-      <c r="J8" s="1"/>
-      <c r="K8" s="1"/>
-      <c r="L8" s="1"/>
-      <c r="M8" s="1"/>
-      <c r="N8" s="1"/>
-      <c r="O8" s="1"/>
-      <c r="P8" s="1"/>
-      <c r="Q8" s="1"/>
-      <c r="R8" s="1"/>
-      <c r="S8" s="1"/>
-      <c r="T8" s="1"/>
-      <c r="U8" s="1"/>
-      <c r="V8" s="1"/>
-      <c r="W8" s="1"/>
-      <c r="X8" s="1"/>
-      <c r="Y8" s="1"/>
-      <c r="Z8" s="1"/>
-      <c r="AA8" s="1"/>
-      <c r="AB8" s="1"/>
-      <c r="AC8" s="1"/>
-      <c r="AD8" s="4"/>
-      <c r="AE8" s="4"/>
-      <c r="AF8" s="4"/>
-      <c r="AG8" s="4"/>
-      <c r="AH8" s="4"/>
-      <c r="AI8" s="4"/>
-      <c r="AJ8" s="4"/>
-      <c r="AK8" s="4"/>
-      <c r="AL8" s="4"/>
-      <c r="AM8" s="4"/>
-      <c r="AN8" s="4"/>
-      <c r="AO8" s="4"/>
-      <c r="AP8" s="4"/>
-    </row>
-    <row r="9" spans="1:42" x14ac:dyDescent="0.4">
-      <c r="A9">
-        <f>Insert!A9</f>
-        <v>0</v>
-      </c>
-      <c r="B9" s="1" t="e" cm="1">
-        <f t="array" aca="1" ref="B9" ca="1">RIGHT(_xlfn.ANCHORARRAY(Insert!B9), LEN(_xlfn.ANCHORARRAY(Insert!B9)) - FIND("=",_xlfn.ANCHORARRAY( Insert!B9)))</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
-      <c r="G9" s="1"/>
-      <c r="H9" s="1"/>
-      <c r="I9" s="1"/>
-      <c r="J9" s="1"/>
-      <c r="K9" s="1"/>
-      <c r="L9" s="1"/>
-      <c r="M9" s="1"/>
-      <c r="N9" s="1"/>
-      <c r="O9" s="1"/>
-      <c r="P9" s="1"/>
-      <c r="Q9" s="1"/>
-      <c r="R9" s="1"/>
-      <c r="S9" s="1"/>
-      <c r="T9" s="1"/>
-      <c r="U9" s="1"/>
-      <c r="V9" s="1"/>
-      <c r="W9" s="1"/>
-      <c r="X9" s="1"/>
-      <c r="Y9" s="1"/>
-      <c r="Z9" s="1"/>
-      <c r="AA9" s="1"/>
-      <c r="AB9" s="1"/>
-      <c r="AC9" s="1"/>
-      <c r="AD9" s="4"/>
-      <c r="AE9" s="4"/>
-      <c r="AF9" s="4"/>
-      <c r="AG9" s="4"/>
-      <c r="AH9" s="4"/>
-      <c r="AI9" s="4"/>
-      <c r="AJ9" s="4"/>
-      <c r="AK9" s="4"/>
-      <c r="AL9" s="4"/>
-      <c r="AM9" s="4"/>
-      <c r="AN9" s="4"/>
-      <c r="AO9" s="4"/>
-      <c r="AP9" s="4"/>
-    </row>
-    <row r="10" spans="1:42" x14ac:dyDescent="0.4">
-      <c r="A10">
-        <f>Insert!A10</f>
-        <v>0</v>
-      </c>
-      <c r="B10" s="1" t="e" cm="1">
-        <f t="array" aca="1" ref="B10" ca="1">RIGHT(_xlfn.ANCHORARRAY(Insert!B10), LEN(_xlfn.ANCHORARRAY(Insert!B10)) - FIND("=",_xlfn.ANCHORARRAY( Insert!B10)))</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
-      <c r="G10" s="1"/>
-      <c r="H10" s="1"/>
-      <c r="I10" s="1"/>
-      <c r="J10" s="1"/>
-      <c r="K10" s="1"/>
-      <c r="L10" s="1"/>
-      <c r="M10" s="1"/>
-      <c r="N10" s="1"/>
-      <c r="O10" s="1"/>
-      <c r="P10" s="1"/>
-      <c r="Q10" s="1"/>
-      <c r="R10" s="1"/>
-      <c r="S10" s="1"/>
-      <c r="T10" s="1"/>
-      <c r="U10" s="1"/>
-      <c r="V10" s="1"/>
-      <c r="W10" s="1"/>
-      <c r="X10" s="1"/>
-      <c r="Y10" s="1"/>
-      <c r="Z10" s="1"/>
-      <c r="AA10" s="1"/>
-      <c r="AB10" s="1"/>
-      <c r="AC10" s="1"/>
-      <c r="AD10" s="4"/>
-      <c r="AE10" s="4"/>
-      <c r="AF10" s="4"/>
-      <c r="AG10" s="4"/>
-      <c r="AH10" s="4"/>
-      <c r="AI10" s="4"/>
-      <c r="AJ10" s="4"/>
-      <c r="AK10" s="4"/>
-      <c r="AL10" s="4"/>
-      <c r="AM10" s="4"/>
-      <c r="AN10" s="4"/>
-      <c r="AO10" s="4"/>
-      <c r="AP10" s="4"/>
-    </row>
-    <row r="11" spans="1:42" x14ac:dyDescent="0.4">
-      <c r="A11">
-        <f>Insert!A11</f>
-        <v>0</v>
-      </c>
-      <c r="B11" s="1" t="e" cm="1">
-        <f t="array" aca="1" ref="B11" ca="1">RIGHT(_xlfn.ANCHORARRAY(Insert!B11), LEN(_xlfn.ANCHORARRAY(Insert!B11)) - FIND("=",_xlfn.ANCHORARRAY( Insert!B11)))</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
-      <c r="G11" s="1"/>
-      <c r="H11" s="1"/>
-      <c r="I11" s="1"/>
-      <c r="J11" s="1"/>
-      <c r="K11" s="1"/>
-      <c r="L11" s="1"/>
-      <c r="M11" s="1"/>
-      <c r="N11" s="1"/>
-      <c r="O11" s="1"/>
-      <c r="P11" s="1"/>
-      <c r="Q11" s="1"/>
-      <c r="R11" s="1"/>
-      <c r="S11" s="1"/>
-      <c r="T11" s="1"/>
-      <c r="U11" s="1"/>
-      <c r="V11" s="1"/>
-      <c r="W11" s="1"/>
-      <c r="X11" s="1"/>
-      <c r="Y11" s="1"/>
-      <c r="Z11" s="1"/>
-      <c r="AA11" s="1"/>
-      <c r="AB11" s="1"/>
-      <c r="AC11" s="1"/>
-      <c r="AD11" s="4"/>
-      <c r="AE11" s="4"/>
-      <c r="AF11" s="4"/>
-      <c r="AG11" s="4"/>
-      <c r="AH11" s="4"/>
-      <c r="AI11" s="4"/>
-      <c r="AJ11" s="4"/>
-      <c r="AK11" s="4"/>
-      <c r="AL11" s="4"/>
-      <c r="AM11" s="4"/>
-      <c r="AN11" s="4"/>
-      <c r="AO11" s="4"/>
-      <c r="AP11" s="4"/>
-    </row>
-    <row r="12" spans="1:42" x14ac:dyDescent="0.4">
-      <c r="A12">
-        <f>Insert!A12</f>
-        <v>0</v>
-      </c>
-      <c r="B12" s="1" t="e" cm="1">
-        <f t="array" aca="1" ref="B12" ca="1">RIGHT(_xlfn.ANCHORARRAY(Insert!B12), LEN(_xlfn.ANCHORARRAY(Insert!B12)) - FIND("=",_xlfn.ANCHORARRAY( Insert!B12)))</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
-      <c r="G12" s="1"/>
-      <c r="H12" s="1"/>
-      <c r="I12" s="1"/>
-      <c r="J12" s="1"/>
-      <c r="K12" s="1"/>
-      <c r="L12" s="1"/>
-      <c r="M12" s="1"/>
-      <c r="N12" s="1"/>
-      <c r="O12" s="1"/>
-      <c r="P12" s="1"/>
-      <c r="Q12" s="1"/>
-      <c r="R12" s="1"/>
-      <c r="S12" s="1"/>
-      <c r="T12" s="1"/>
-      <c r="U12" s="1"/>
-      <c r="V12" s="1"/>
-      <c r="W12" s="1"/>
-      <c r="X12" s="1"/>
-      <c r="Y12" s="1"/>
-      <c r="Z12" s="1"/>
-      <c r="AA12" s="1"/>
-      <c r="AB12" s="1"/>
-      <c r="AC12" s="1"/>
-      <c r="AD12" s="4"/>
-      <c r="AE12" s="4"/>
-      <c r="AF12" s="4"/>
-      <c r="AG12" s="4"/>
-      <c r="AH12" s="4"/>
-      <c r="AI12" s="4"/>
-      <c r="AJ12" s="4"/>
-      <c r="AK12" s="4"/>
-      <c r="AL12" s="4"/>
-      <c r="AM12" s="4"/>
-      <c r="AN12" s="4"/>
-      <c r="AO12" s="4"/>
-      <c r="AP12" s="4"/>
-    </row>
-    <row r="13" spans="1:42" x14ac:dyDescent="0.4">
-      <c r="A13">
-        <f>Insert!A13</f>
-        <v>0</v>
-      </c>
-      <c r="B13" s="1" t="e" cm="1">
-        <f t="array" aca="1" ref="B13" ca="1">RIGHT(_xlfn.ANCHORARRAY(Insert!B13), LEN(_xlfn.ANCHORARRAY(Insert!B13)) - FIND("=",_xlfn.ANCHORARRAY( Insert!B13)))</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
-      <c r="F13" s="1"/>
-      <c r="G13" s="1"/>
-      <c r="H13" s="1"/>
-      <c r="I13" s="1"/>
-      <c r="J13" s="1"/>
-      <c r="K13" s="1"/>
-      <c r="L13" s="1"/>
-      <c r="M13" s="1"/>
-      <c r="N13" s="1"/>
-      <c r="O13" s="1"/>
-      <c r="P13" s="1"/>
-      <c r="Q13" s="1"/>
-      <c r="R13" s="1"/>
-      <c r="S13" s="1"/>
-      <c r="T13" s="1"/>
-      <c r="U13" s="1"/>
-      <c r="V13" s="1"/>
-      <c r="W13" s="1"/>
-      <c r="X13" s="1"/>
-      <c r="Y13" s="1"/>
-      <c r="Z13" s="1"/>
-      <c r="AA13" s="1"/>
-      <c r="AB13" s="1"/>
-      <c r="AC13" s="1"/>
-      <c r="AD13" s="4"/>
-      <c r="AE13" s="4"/>
-      <c r="AF13" s="4"/>
-      <c r="AG13" s="4"/>
-      <c r="AH13" s="4"/>
-      <c r="AI13" s="4"/>
-      <c r="AJ13" s="4"/>
-      <c r="AK13" s="4"/>
-      <c r="AL13" s="4"/>
-      <c r="AM13" s="4"/>
-      <c r="AN13" s="4"/>
-      <c r="AO13" s="4"/>
-      <c r="AP13" s="4"/>
-    </row>
-    <row r="14" spans="1:42" x14ac:dyDescent="0.4">
-      <c r="A14">
-        <f>Insert!A14</f>
-        <v>0</v>
-      </c>
-      <c r="B14" s="1" t="e" cm="1">
-        <f t="array" aca="1" ref="B14" ca="1">RIGHT(_xlfn.ANCHORARRAY(Insert!B14), LEN(_xlfn.ANCHORARRAY(Insert!B14)) - FIND("=",_xlfn.ANCHORARRAY( Insert!B14)))</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
-      <c r="E14" s="1"/>
-      <c r="F14" s="1"/>
-      <c r="G14" s="1"/>
-      <c r="H14" s="1"/>
-      <c r="I14" s="1"/>
-      <c r="J14" s="1"/>
-      <c r="K14" s="1"/>
-      <c r="L14" s="1"/>
-      <c r="M14" s="1"/>
-      <c r="N14" s="1"/>
-      <c r="O14" s="1"/>
-      <c r="P14" s="1"/>
-      <c r="Q14" s="1"/>
-      <c r="R14" s="1"/>
-      <c r="S14" s="1"/>
-      <c r="T14" s="1"/>
-      <c r="U14" s="1"/>
-      <c r="V14" s="1"/>
-      <c r="W14" s="1"/>
-      <c r="X14" s="1"/>
-      <c r="Y14" s="1"/>
-      <c r="Z14" s="1"/>
-      <c r="AA14" s="1"/>
-      <c r="AB14" s="1"/>
-      <c r="AC14" s="1"/>
-      <c r="AD14" s="4"/>
-      <c r="AE14" s="4"/>
-      <c r="AF14" s="4"/>
-      <c r="AG14" s="4"/>
-      <c r="AH14" s="4"/>
-      <c r="AI14" s="4"/>
-      <c r="AJ14" s="4"/>
-      <c r="AK14" s="4"/>
-      <c r="AL14" s="4"/>
-      <c r="AM14" s="4"/>
-      <c r="AN14" s="4"/>
-      <c r="AO14" s="4"/>
-      <c r="AP14" s="4"/>
-    </row>
-    <row r="15" spans="1:42" x14ac:dyDescent="0.4">
-      <c r="A15">
-        <f>Insert!A15</f>
-        <v>0</v>
-      </c>
-      <c r="B15" s="1" t="e" cm="1">
-        <f t="array" aca="1" ref="B15" ca="1">RIGHT(_xlfn.ANCHORARRAY(Insert!B15), LEN(_xlfn.ANCHORARRAY(Insert!B15)) - FIND("=",_xlfn.ANCHORARRAY( Insert!B15)))</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
-      <c r="F15" s="1"/>
-      <c r="G15" s="1"/>
-      <c r="H15" s="1"/>
-      <c r="I15" s="1"/>
-      <c r="J15" s="1"/>
-      <c r="K15" s="1"/>
-      <c r="L15" s="1"/>
-      <c r="M15" s="1"/>
-      <c r="N15" s="1"/>
-      <c r="O15" s="1"/>
-      <c r="P15" s="1"/>
-      <c r="Q15" s="1"/>
-      <c r="R15" s="1"/>
-      <c r="S15" s="1"/>
-      <c r="T15" s="1"/>
-      <c r="U15" s="1"/>
-      <c r="V15" s="1"/>
-      <c r="W15" s="1"/>
-      <c r="X15" s="1"/>
-      <c r="Y15" s="1"/>
-      <c r="Z15" s="1"/>
-      <c r="AA15" s="1"/>
-      <c r="AB15" s="1"/>
-      <c r="AC15" s="1"/>
-      <c r="AD15" s="4"/>
-      <c r="AE15" s="4"/>
-      <c r="AF15" s="4"/>
-      <c r="AG15" s="4"/>
-      <c r="AH15" s="4"/>
-      <c r="AI15" s="4"/>
-      <c r="AJ15" s="4"/>
-      <c r="AK15" s="4"/>
-      <c r="AL15" s="4"/>
-      <c r="AM15" s="4"/>
-      <c r="AN15" s="4"/>
-      <c r="AO15" s="4"/>
-      <c r="AP15" s="4"/>
-    </row>
-    <row r="16" spans="1:42" x14ac:dyDescent="0.4">
-      <c r="A16">
-        <f>Insert!A16</f>
-        <v>0</v>
-      </c>
-      <c r="B16" s="1" t="e" cm="1">
-        <f t="array" aca="1" ref="B16" ca="1">RIGHT(_xlfn.ANCHORARRAY(Insert!B16), LEN(_xlfn.ANCHORARRAY(Insert!B16)) - FIND("=",_xlfn.ANCHORARRAY( Insert!B16)))</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
-      <c r="E16" s="1"/>
-      <c r="F16" s="1"/>
-      <c r="G16" s="1"/>
-      <c r="H16" s="1"/>
-      <c r="I16" s="1"/>
-      <c r="J16" s="1"/>
-      <c r="K16" s="1"/>
-      <c r="L16" s="1"/>
-      <c r="M16" s="1"/>
-      <c r="N16" s="1"/>
-      <c r="O16" s="1"/>
-      <c r="P16" s="1"/>
-      <c r="Q16" s="1"/>
-      <c r="R16" s="1"/>
-      <c r="S16" s="1"/>
-      <c r="T16" s="1"/>
-      <c r="U16" s="1"/>
-      <c r="V16" s="1"/>
-      <c r="W16" s="1"/>
-      <c r="X16" s="1"/>
-      <c r="Y16" s="1"/>
-      <c r="Z16" s="1"/>
-      <c r="AA16" s="1"/>
-      <c r="AB16" s="1"/>
-      <c r="AC16" s="1"/>
-      <c r="AD16" s="4"/>
-      <c r="AE16" s="4"/>
-      <c r="AF16" s="4"/>
-      <c r="AG16" s="4"/>
-      <c r="AH16" s="4"/>
-      <c r="AI16" s="4"/>
-      <c r="AJ16" s="4"/>
-      <c r="AK16" s="4"/>
-      <c r="AL16" s="4"/>
-      <c r="AM16" s="4"/>
-      <c r="AN16" s="4"/>
-      <c r="AO16" s="4"/>
-      <c r="AP16" s="4"/>
-    </row>
-    <row r="17" spans="1:42" x14ac:dyDescent="0.4">
-      <c r="A17">
-        <f>Insert!A17</f>
-        <v>0</v>
-      </c>
-      <c r="B17" s="1" t="e" cm="1">
-        <f t="array" aca="1" ref="B17" ca="1">RIGHT(_xlfn.ANCHORARRAY(Insert!B17), LEN(_xlfn.ANCHORARRAY(Insert!B17)) - FIND("=",_xlfn.ANCHORARRAY( Insert!B17)))</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="C17" s="1"/>
-      <c r="D17" s="1"/>
-      <c r="E17" s="1"/>
-      <c r="F17" s="1"/>
-      <c r="G17" s="1"/>
-      <c r="H17" s="1"/>
-      <c r="I17" s="1"/>
-      <c r="J17" s="1"/>
-      <c r="K17" s="1"/>
-      <c r="L17" s="1"/>
-      <c r="M17" s="1"/>
-      <c r="N17" s="1"/>
-      <c r="O17" s="1"/>
-      <c r="P17" s="1"/>
-      <c r="Q17" s="1"/>
-      <c r="R17" s="1"/>
-      <c r="S17" s="1"/>
-      <c r="T17" s="1"/>
-      <c r="U17" s="1"/>
-      <c r="V17" s="1"/>
-      <c r="W17" s="1"/>
-      <c r="X17" s="1"/>
-      <c r="Y17" s="1"/>
-      <c r="Z17" s="1"/>
-      <c r="AA17" s="1"/>
-      <c r="AB17" s="1"/>
-      <c r="AC17" s="1"/>
-      <c r="AD17" s="4"/>
-      <c r="AE17" s="4"/>
-      <c r="AF17" s="4"/>
-      <c r="AG17" s="4"/>
-      <c r="AH17" s="4"/>
-      <c r="AI17" s="4"/>
-      <c r="AJ17" s="4"/>
-      <c r="AK17" s="4"/>
-      <c r="AL17" s="4"/>
-      <c r="AM17" s="4"/>
-      <c r="AN17" s="4"/>
-      <c r="AO17" s="4"/>
-      <c r="AP17" s="4"/>
-    </row>
-    <row r="18" spans="1:42" x14ac:dyDescent="0.4">
-      <c r="A18">
-        <f>Insert!A18</f>
-        <v>0</v>
-      </c>
-      <c r="B18" s="1" t="e" cm="1">
-        <f t="array" aca="1" ref="B18" ca="1">RIGHT(_xlfn.ANCHORARRAY(Insert!B18), LEN(_xlfn.ANCHORARRAY(Insert!B18)) - FIND("=",_xlfn.ANCHORARRAY( Insert!B18)))</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="C18" s="1"/>
-      <c r="D18" s="1"/>
-      <c r="E18" s="1"/>
-      <c r="F18" s="1"/>
-      <c r="G18" s="1"/>
-      <c r="H18" s="1"/>
-      <c r="I18" s="1"/>
-      <c r="J18" s="1"/>
-      <c r="K18" s="1"/>
-      <c r="L18" s="1"/>
-      <c r="M18" s="1"/>
-      <c r="N18" s="1"/>
-      <c r="O18" s="1"/>
-      <c r="P18" s="1"/>
-      <c r="Q18" s="1"/>
-      <c r="R18" s="1"/>
-      <c r="S18" s="1"/>
-      <c r="T18" s="1"/>
-      <c r="U18" s="1"/>
-      <c r="V18" s="1"/>
-      <c r="W18" s="1"/>
-      <c r="X18" s="1"/>
-      <c r="Y18" s="1"/>
-      <c r="Z18" s="1"/>
-      <c r="AA18" s="1"/>
-      <c r="AB18" s="1"/>
-      <c r="AC18" s="1"/>
-      <c r="AD18" s="4"/>
-      <c r="AE18" s="4"/>
-      <c r="AF18" s="4"/>
-      <c r="AG18" s="4"/>
-      <c r="AH18" s="4"/>
-      <c r="AI18" s="4"/>
-      <c r="AJ18" s="4"/>
-      <c r="AK18" s="4"/>
-      <c r="AL18" s="4"/>
-      <c r="AM18" s="4"/>
-      <c r="AN18" s="4"/>
-      <c r="AO18" s="4"/>
-      <c r="AP18" s="4"/>
-    </row>
-    <row r="19" spans="1:42" x14ac:dyDescent="0.4">
-      <c r="A19">
-        <f>Insert!A19</f>
-        <v>0</v>
-      </c>
-      <c r="B19" s="1" t="e" cm="1">
-        <f t="array" aca="1" ref="B19" ca="1">RIGHT(_xlfn.ANCHORARRAY(Insert!B19), LEN(_xlfn.ANCHORARRAY(Insert!B19)) - FIND("=",_xlfn.ANCHORARRAY( Insert!B19)))</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="C19" s="1"/>
-      <c r="D19" s="1"/>
-      <c r="E19" s="1"/>
-      <c r="F19" s="1"/>
-      <c r="G19" s="1"/>
-      <c r="H19" s="1"/>
-      <c r="I19" s="1"/>
-      <c r="J19" s="1"/>
-      <c r="K19" s="1"/>
-      <c r="L19" s="1"/>
-      <c r="M19" s="1"/>
-      <c r="N19" s="1"/>
-      <c r="O19" s="1"/>
-      <c r="P19" s="1"/>
-      <c r="Q19" s="1"/>
-      <c r="R19" s="1"/>
-      <c r="S19" s="1"/>
-      <c r="T19" s="1"/>
-      <c r="U19" s="1"/>
-      <c r="V19" s="1"/>
-      <c r="W19" s="1"/>
-      <c r="X19" s="1"/>
-      <c r="Y19" s="1"/>
-      <c r="Z19" s="1"/>
-      <c r="AA19" s="1"/>
-      <c r="AB19" s="1"/>
-      <c r="AC19" s="1"/>
-      <c r="AD19" s="4"/>
-      <c r="AE19" s="4"/>
-      <c r="AF19" s="4"/>
-      <c r="AG19" s="4"/>
-      <c r="AH19" s="4"/>
-      <c r="AI19" s="4"/>
-      <c r="AJ19" s="4"/>
-      <c r="AK19" s="4"/>
-      <c r="AL19" s="4"/>
-      <c r="AM19" s="4"/>
-      <c r="AN19" s="4"/>
-      <c r="AO19" s="4"/>
-      <c r="AP19" s="4"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
 </file>